--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetSoccerDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetSoccerDataErrorMarketsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="436">
   <si>
     <t>This market works for Client  GameID = 3246416  MarketName = Last Team To Score</t>
   </si>
@@ -32,12 +32,12 @@
     <t>This market works for Client  GameID = 3246418  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246418  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246418  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246418  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246418  MarketName = To Miss A Penalty</t>
   </si>
   <si>
@@ -59,36 +59,36 @@
     <t>This market works for Client  GameID = 3246420  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246420  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246420  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246420  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246420  MarketName = To Miss A Penalty</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3246421  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246421  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246421  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246421  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246421  MarketName = To Miss A Penalty</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3246422  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246422  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246422  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246422  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246422  MarketName = To Miss A Penalty</t>
   </si>
   <si>
@@ -98,27 +98,27 @@
     <t>This market works for Client  GameID = 3246423  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246423  MarketName = To Win To Nil</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3246423  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246423  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246423  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246423  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246424  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3246424  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246424  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246424  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246424  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246424  MarketName = To Miss A Penalty</t>
   </si>
   <si>
@@ -140,51 +140,51 @@
     <t>This market works for Client  GameID = 3246426  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246426  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246426  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246426  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246426  MarketName = To Miss A Penalty</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3246427  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246427  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246427  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246427  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246427  MarketName = To Miss A Penalty</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3246428  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246428  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246428  MarketName = To Win To Nil</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3246428  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246428  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246429  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3246429  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246429  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246429  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246429  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246429  MarketName = To Miss A Penalty</t>
   </si>
   <si>
@@ -194,15 +194,15 @@
     <t>This market works for Client  GameID = 3453871  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3453871  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3453871  MarketName = To Score in Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3453871  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3453871  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3479223  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -236,118 +236,7 @@
     <t>This market works for Client  GameID = 3715798  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3708411  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708411  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708411  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708411  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708412  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708412  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708412  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708412  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708414  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708414  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708414  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708414  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708415  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708415  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708415  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708415  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708431  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708431  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708431  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708431  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708433  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708433  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708433  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708433  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708433  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708444  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708444  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708444  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708444  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708456  MarketName = To Win Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708456  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708456  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708456  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3708456  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746659  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746660  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746661  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746662  MarketName = 1 Half Correct Score</t>
+    <t>This market works for Client  GameID = 3746659  MarketName = Paris Saint-Germain Exact Goals</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712817  MarketName = To Win Both Halves</t>
@@ -377,12 +266,12 @@
     <t>This market works for Client  GameID = 3712820  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712820  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712820  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712820  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712821  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -401,9 +290,6 @@
     <t>This market works for Client  GameID = 3712822  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712823  MarketName = Hapoel Beer Sheva Total Over/Under</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712823  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -416,30 +302,33 @@
     <t>This market works for Client  GameID = 3712824  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712824  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712824  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712824  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712825  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712825  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712825  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712825  MarketName = To Win To Nil</t>
+    <t>This market works for Client  GameID = 3712825  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712827  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712827  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712827  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712827  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712827  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -455,12 +344,12 @@
     <t>This market works for Client  GameID = 3712829  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712829  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712829  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712829  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712830  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -503,12 +392,12 @@
     <t>This market works for Client  GameID = 3712837  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712837  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712837  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712837  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712800  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -524,42 +413,45 @@
     <t>This market works for Client  GameID = 3712801  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712801  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712801  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712801  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712801  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712801  MarketName = To Score in Both Halves</t>
+    <t>This market works for Client  GameID = 3712801  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712802  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712802  MarketName = To Win To Nil</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712802  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712802  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712802  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712802  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712818  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712818  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712818  MarketName = To Win To Nil</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712818  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712818  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712818  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712818  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712818  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -569,12 +461,12 @@
     <t>This market works for Client  GameID = 3712826  MarketName = To Win To Nil</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712826  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712826  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712826  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712831  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -590,78 +482,78 @@
     <t>This market works for Client  GameID = 3712833  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712833  MarketName = To Win To Nil</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712833  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712833  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712833  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712833  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712835  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712835  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712835  MarketName = To Score in Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712835  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712835  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712838  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712838  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712838  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712838  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712838  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712838  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712839  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712839  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712839  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712839  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712839  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712839  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712840  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712840  MarketName = To Score in Both Halves</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712840  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712840  MarketName = To Win To Nil</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712840  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712840  MarketName = To Score in Both Halves</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712841  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712841  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712841  MarketName = To Win To Nil</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712841  MarketName = Race To th Goal</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712841  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712841  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712841  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712841  MarketName = Race To th Goal</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712842  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -677,27 +569,27 @@
     <t>This market works for Client  GameID = 3712843  MarketName = To Win Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712843  MarketName = To Miss A Penalty</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3712843  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712843  MarketName = To Score in Both Halves</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712843  MarketName = To Win To Nil</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3712843  MarketName = To Miss A Penalty</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712844  MarketName = To Win Both Halves</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3712844  MarketName = To Score in Both Halves</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712844  MarketName = To Win To Nil</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3712844  MarketName = To Miss A Penalty</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3712844  MarketName = To Win To Nil</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3712845  MarketName = To Win Both Halves</t>
   </si>
   <si>
@@ -710,6 +602,9 @@
     <t>This market works for Client  GameID = 3712845  MarketName = To Win To Nil</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3712845  MarketName = Race To th Goal</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3715260  MarketName = Last Team To Score</t>
   </si>
   <si>
@@ -728,21 +623,9 @@
     <t>This market works for Client  GameID = 3715284  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3744826  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747190  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747190  MarketName = 2 Half Exact Goals</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3715316  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715357  MarketName = Race To th Goal</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3715380  MarketName = Last Team To Score</t>
   </si>
   <si>
@@ -755,39 +638,45 @@
     <t>This market works for Client  GameID = 3715565  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715565  MarketName = Race To th Goal</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3736436  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3736444  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738510  MarketName = Race To th Goal</t>
+    <t>This market works for Client  GameID = 3736436  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736437  MarketName = Athletic Bilbao Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736437  MarketName = Rayo Vallecano Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736441  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736443  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3732140  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3734675  MarketName = Cartagena FC Exact Goals</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3738501  MarketName = Race To th Goal</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3738542  MarketName = Mirandes Exact Goals</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3740513  MarketName = Race To th Goal</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3740516  MarketName = Ponferradina Exact Goals</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3740516  MarketName = Race To th Goal</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3740517  MarketName = Eibar Exact Goals</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3721642  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721644  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3721646  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -806,22 +695,40 @@
     <t>This market works for Client  GameID = 3745273  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3745338  MarketName = Last Team To Score</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3745340  MarketName = Last Team To Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3745342  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3745344  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3745344  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3746748  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3746748  MarketName = Race To th Goal</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3737138  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3737143  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3737146  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3746750  MarketName = Hamworthy United Exact Goals</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746753  MarketName = Swindon Supermarine Exact Goals</t>
+    <t>This market works for Client  GameID = 3737157  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3747671  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3747675  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715233  MarketName = Race To th Goal</t>
@@ -833,45 +740,66 @@
     <t>This market works for Client  GameID = 3715246  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3715250  MarketName = Race To th Goal</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3715256  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715310  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3745280  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3745329  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3745337  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3745339  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3745339  MarketName = Race To th Goal</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3746747  MarketName = Race To th Goal</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715662  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715666  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3721131  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3721140  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3721141  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3724651  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3731098  MarketName = Race To th Goal</t>
+    <t>This market works for Client  GameID = 3736789  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736790  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736796  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3748953  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721665  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3735144  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3736455  MarketName = Fiorentina Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736455  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736458  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736461  MarketName = Napoli Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3736462  MarketName = 2 Half Exact Goals</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3734339  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -881,9 +809,27 @@
     <t>This market works for Client  GameID = 3738500  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3743439  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3743441  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3743459  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3743463  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3724562  MarketName = Exact Goals</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3724580  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3740345  MarketName = 1 Half Correct Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3729501  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -902,9 +848,18 @@
     <t>This market works for Client  GameID = 3732158  MarketName = Last Team To Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3720151  MarketName = Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3722881  MarketName = Exact Goals</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3726363  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3727028  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3739508  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -914,12 +869,18 @@
     <t>This market works for Client  GameID = 3732097  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3735147  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3737505  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3738419  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3738512  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3724310  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -950,6 +911,9 @@
     <t>This market works for Client  GameID = 3715972  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3716018  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3716040  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -959,9 +923,6 @@
     <t>This market works for Client  GameID = 3740095  MarketName = Race To th Goal</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3742098  MarketName = Sivasspor Exact Goals</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3742098  MarketName = Istanbulspor AS Exact Goals</t>
   </si>
   <si>
@@ -974,36 +935,54 @@
     <t>This market works for Client  GameID = 3743192  MarketName = Ankaragucu Exact Goals</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3743193  MarketName = Gazisehir Gaziantep FK Exact Goals</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3743193  MarketName = Umraniyespor Exact Goals</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715865  MarketName = Last Team To Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3715867  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3731754  MarketName = Race To th Goal</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3736122  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3736123  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3738515  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3738515  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3739336  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3725898  MarketName = Last Team To Score</t>
+    <t>This market works for Client  GameID = 3750573  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3735361  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3732391  MarketName = Last Team To Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3734667  MarketName = Race To th Goal</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3736280  MarketName = Last Team To Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3738530  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3744543  MarketName = Race To th Goal</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3718797  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -1013,27 +992,36 @@
     <t>This market works for Client  GameID = 3721134  MarketName = Race To th Goal</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3746710  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746766  MarketName = 1 Half Correct Score</t>
+    <t>This market works for Client  GameID = 3750559  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750567  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3735362  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3737898  MarketName = Race To th Goal</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3744559  MarketName = 1 Half Correct Score</t>
+    <t>This market works for Client  GameID = 3748125  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3721504  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3721507  MarketName = Kisvarda Exact Goals</t>
+    <t>This market works for Client  GameID = 3721504  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3721507  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3748122  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3748741  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3724104  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -1043,22 +1031,13 @@
     <t>This market works for Client  GameID = 3728704  MarketName = Race To th Goal</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3747171  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747172  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747178  MarketName = 1 Half Correct Score</t>
+    <t>This market works for Client  GameID = 3748739  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3738541  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3743532  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726937  MarketName = Race To th Goal</t>
+    <t>This market works for Client  GameID = 3750571  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3739603  MarketName = Race To th Goal</t>
@@ -1067,7 +1046,13 @@
     <t>This market works for Client  GameID = 3739604  MarketName = Race To th Goal</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3726955  MarketName = Race To th Goal</t>
+    <t>This market works for Client  GameID = 3747400  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751085  MarketName = 1 Half Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738586  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3738586  MarketName = Race To th Goal</t>
@@ -1076,31 +1061,31 @@
     <t>This market works for Client  GameID = 3739291  MarketName = Race To th Goal</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3744708  MarketName = Sichuan Jiuniu Exact Goals</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3743389  MarketName = La Equidad Exact Goals</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3743396  MarketName = Atletico Nacional Exact Goals</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3743409  MarketName = Cali Exact Goals</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3741032  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3743410  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716038  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716039  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716042  MarketName = Last Team To Score</t>
+    <t>This market works for Client  GameID = 3747695  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739381  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3743530  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3746782  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3748932  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3748938  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3748941  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3748941  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751428  MarketName = 1 Half Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3739341  MarketName = Last Team To Score</t>
@@ -1115,16 +1100,13 @@
     <t>This market works for Client  GameID = 3740649  MarketName = San Luis Exact Goals</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3726945  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3727676  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3728365  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747170  MarketName = 1 Half Correct Score</t>
+    <t>This market works for Client  GameID = 3732461  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3747170  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3747170  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3724889  MarketName = Race To th Goal</t>
@@ -1142,18 +1124,24 @@
     <t>This market works for Client  GameID = 3724896  MarketName = Raufoss Fotball Exact Goals</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3744414  MarketName = Last Team To Score</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3732112  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3735127  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739399  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3732128  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3732130  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3735121  MarketName = Race To th Goal</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3735142  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -1169,9 +1157,42 @@
     <t>This market works for Client  GameID = 3732295  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3738215  MarketName = Vitorul Pandurii Târgu Jiu Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738217  MarketName = Slatina Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738217  MarketName = Ripensia Timisoara Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738218  MarketName = CSC 1599 Selimbar Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738218  MarketName = Unirea Dej Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738219  MarketName = Unirea Constanta Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738220  MarketName = Unirea Slobozia Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738221  MarketName = Politehnica Iasi Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3743918  MarketName = Metaloglobus Bucuresti Exact Goals</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3721045  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3721135  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3724862  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3724862  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -1181,16 +1202,31 @@
     <t>This market works for Client  GameID = 3735146  MarketName = Race To th Goal</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3737326  MarketName = Nong Bua Pitchaya FC Exact Goals</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3737326  MarketName = 2 Half Exact Goals</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747271  MarketName = 1 Half Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3744402  MarketName = Last Team To Score</t>
+    <t>This market works for Client  GameID = 3740511  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3737451  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740667  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3744546  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3747254  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739385  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739385  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741033  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3737526  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3739498  MarketName = Race To th Goal</t>
@@ -1202,6 +1238,12 @@
     <t>This market works for Client  GameID = 3739500  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3743564  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3732115  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3724529  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -1214,30 +1256,21 @@
     <t>This market works for Client  GameID = 3726368  MarketName = Race To th Goal</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3739985  MarketName = Race To th Goal</t>
+    <t>This market works for Client  GameID = 3739989  MarketName = Race To th Goal</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3716101  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3716160  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3743111  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3743111  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3744190  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3744190  MarketName = Race To th Goal</t>
+    <t>This market works for Client  GameID = 3744409  MarketName = Last Team To Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715514  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3715578  MarketName = Race To th Goal</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3715614  MarketName = Race To th Goal</t>
   </si>
   <si>
@@ -1250,22 +1283,22 @@
     <t>This market works for Client  GameID = 3736138  MarketName = Race To th Goal</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3736129  MarketName = Last Team To Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3737081  MarketName = Race To th Goal</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3728639  MarketName = Last Team To Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3728639  MarketName = Race To th Goal</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3738534  MarketName = Last Team To Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3721673  MarketName = Race To th Goal</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736553  MarketName = Last Team To Score</t>
+    <t>This market works for Client  GameID = 3747673  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3746778  MarketName = 20.0 Minute Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This market works for Client  GameID = 3746778  MarketName = Siheung Citizen th Goal In Interval  - </t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3733937  MarketName = Race To th Goal</t>
@@ -1281,6 +1314,12 @@
   </si>
   <si>
     <t>This market works for Client  GameID = 3737142  MarketName = Last Team To Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3733938  MarketName = Race To th Goal</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3737171  MarketName = Race To th Goal</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A438"/>
+  <dimension ref="A1:A452"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1876,197 +1915,197 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
@@ -2236,187 +2275,187 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218">
@@ -2456,187 +2495,187 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="262">
@@ -2656,47 +2695,47 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="274">
@@ -2771,382 +2810,382 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="364">
@@ -3161,207 +3200,207 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="407">
@@ -3371,12 +3410,12 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="410">
@@ -3436,32 +3475,32 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="427">
@@ -3491,37 +3530,107 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetSoccerDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetSoccerDataErrorMarketsList.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nerses Khachatryan\Desktop\Game_IMG_URL_Test\IqsoftCazinoGamesAPITest\CasinoGamesAPITest\CasinoGamesAPITest\src\test\java\CraftBet_003_BrokenMarkets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0F4AAE-29F7-42B2-B65A-989CEB3A3402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ErrorMarkets" sheetId="1" r:id="rId1"/>
+    <sheet name="ErrorMarkets" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>This market works for Client  GameID = 3246416  MarketName = Last Team To Score  MarketID = 206895756  SelectorError = 0.9926997025457207</t>
   </si>
@@ -37,12 +29,12 @@
     <t>This market works for Client  GameID = 3246418  MarketName = To Win Both Halves  MarketID = 206895843  SelectorError = 0.5013071895424837</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246418  MarketName = To Win To Nil  MarketID = 206895841  SelectorError = 0.743071041733036</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246418  MarketName = To Score in Both Halves  MarketID = 206895832  SelectorError = 0.6605491734379378</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246418  MarketName = To Win To Nil  MarketID = 206895841  SelectorError = 0.743071041733036</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246419  MarketName = To Win Both Halves  MarketID = 206895912  SelectorError = 0.3317166704263478</t>
   </si>
   <si>
@@ -67,33 +59,33 @@
     <t>This market works for Client  GameID = 3246421  MarketName = To Win Both Halves  MarketID = 206896049  SelectorError = 0.36601007787448464</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246421  MarketName = To Win To Nil  MarketID = 206896047  SelectorError = 0.6661411115490737</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246421  MarketName = To Score in Both Halves  MarketID = 206896040  SelectorError = 0.5901960784313726</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246421  MarketName = To Win To Nil  MarketID = 206896047  SelectorError = 0.6661411115490737</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246422  MarketName = To Win Both Halves  MarketID = 206896120  SelectorError = 0.42702702702702705</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246422  MarketName = To Win To Nil  MarketID = 206896118  SelectorError = 0.5884952743591487</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246422  MarketName = To Score in Both Halves  MarketID = 206896107  SelectorError = 0.6593406593406592</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246422  MarketName = To Win To Nil  MarketID = 206896118  SelectorError = 0.5884952743591487</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246423  MarketName = Last Team To Score  MarketID = 206896171  SelectorError = 0.9971760129868042</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3246423  MarketName = To Win Both Halves  MarketID = 206896188  SelectorError = 0.22210012210012212</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246423  MarketName = To Win To Nil  MarketID = 206896186  SelectorError = 0.5192240522313871</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246423  MarketName = To Score in Both Halves  MarketID = 206896179  SelectorError = 0.5192240522313871</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246423  MarketName = To Win To Nil  MarketID = 206896186  SelectorError = 0.5192240522313871</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246424  MarketName = Last Team To Score  MarketID = 206896243  SelectorError = 0.9920692842893981</t>
   </si>
   <si>
@@ -112,30 +104,30 @@
     <t>This market works for Client  GameID = 3246425  MarketName = To Win Both Halves  MarketID = 206896320  SelectorError = 0.2523560209424084</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246425  MarketName = To Win To Nil  MarketID = 206896318  SelectorError = 0.5771539384984763</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246425  MarketName = To Score in Both Halves  MarketID = 206896307  SelectorError = 0.4457247175693778</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246425  MarketName = To Win To Nil  MarketID = 206896318  SelectorError = 0.5771539384984763</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246426  MarketName = To Win Both Halves  MarketID = 206896391  SelectorError = 0.44190719766167336</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246426  MarketName = To Win To Nil  MarketID = 206896389  SelectorError = 0.6673447034892819</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246426  MarketName = To Score in Both Halves  MarketID = 206896378  SelectorError = 0.6813953488372093</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246426  MarketName = To Win To Nil  MarketID = 206896389  SelectorError = 0.6673447034892819</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246427  MarketName = To Win Both Halves  MarketID = 206896459  SelectorError = 0.2932792653109905</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3246427  MarketName = To Win To Nil  MarketID = 206896457  SelectorError = 0.5778912717238708</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3246427  MarketName = To Score in Both Halves  MarketID = 206896450  SelectorError = 0.5373626373626373</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3246427  MarketName = To Win To Nil  MarketID = 206896457  SelectorError = 0.5778912717238708</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3246428  MarketName = To Win Both Halves  MarketID = 206896527  SelectorError = 0.24173163398344996</t>
   </si>
   <si>
@@ -163,21 +155,21 @@
     <t>This market works for Client  GameID = 3453871  MarketName = To Win Both Halves  MarketID = 213577989  SelectorError = 0.2098901098901099</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3453871  MarketName = To Win To Nil  MarketID = 213577987  SelectorError = 0.5470622385637941</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3453871  MarketName = To Score in Both Halves  MarketID = 213577956  SelectorError = 0.4444987775061125</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3453871  MarketName = To Win To Nil  MarketID = 213577987  SelectorError = 0.5470622385637941</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3479223  MarketName = To Win Both Halves  MarketID = 214207471  SelectorError = 0.48685540950455003</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3479223  MarketName = To Win To Nil  MarketID = 214207445  SelectorError = 0.7059607059607059</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3479223  MarketName = To Score in Both Halves  MarketID = 214207405  SelectorError = 0.6871554012660813</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3479223  MarketName = To Win To Nil  MarketID = 214207445  SelectorError = 0.7059607059607059</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3482561  MarketName = To Win Both Halves  MarketID = 214282516  SelectorError = 0.44190719766167336</t>
   </si>
   <si>
@@ -187,28 +179,43 @@
     <t>This market works for Client  GameID = 3482561  MarketName = To Win To Nil  MarketID = 214282491  SelectorError = 0.7142857142857142</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3715755  MarketName = Last Team To Score  MarketID = 223673507  SelectorError = 0.9618850243287078</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3715772  MarketName = Last Team To Score  MarketID = 222197249  SelectorError = 0.9964036386714619</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3715776  MarketName = Last Team To Score  MarketID = 224058363  SelectorError = 0.9821428571428572</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3715787  MarketName = Last Team To Score  MarketID = 223080769  SelectorError = 0.9887650712458895</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715798  MarketName = Last Team To Score  MarketID = 223080771  SelectorError = 0.9822877080694268</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3746659  MarketName = Paris Saint-Germain Exact Goals  MarketID = 223286654  SelectorError = 0.946198170684768</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754868  MarketName = Stade Rennais FC Exact Goals  MarketID = 223584435  SelectorError = 0.5198102591003447</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754879  MarketName = Real Betis Exact Goals  MarketID = 223565135  SelectorError = 0.8863863905070218</t>
+    <t>This market works for Client  GameID = 3746659  MarketName = Paris Saint-Germain Exact Goals  MarketID = 223286654  SelectorError = 0.9432120311129844</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754774  MarketName = Race To th Goal  MarketID = 223667290  SelectorError = 0.31850031850031846</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754868  MarketName = Race To th Goal  MarketID = 223667268  SelectorError = 0.3468846424511449</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754884  MarketName = Race To th Goal  MarketID = 224155777  SelectorError = 0.3013503203116888</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754884  MarketName = Race To th Goal  MarketID = 224110693  SelectorError = 0.65559346767098</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715258  MarketName = Last Team To Score  MarketID = 223619499  SelectorError = 0.957514556040757</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715260  MarketName = Last Team To Score  MarketID = 222360412  SelectorError = 0.9860649018756931</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715264  MarketName = Last Team To Score  MarketID = 222197573  SelectorError = 0.940338607190072</t>
+    <t>This market works for Client  GameID = 3715264  MarketName = Last Team To Score  MarketID = 222197573  SelectorError = 0.9412634233294204</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715269  MarketName = Last Team To Score  MarketID = 222359394  SelectorError = 0.9616234857193386</t>
@@ -217,52 +224,74 @@
     <t>This market works for Client  GameID = 3715276  MarketName = Last Team To Score  MarketID = 222359467  SelectorError = 0.9625690493857696</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715277  MarketName = Last Team To Score  MarketID = 222886639  SelectorError = 0.973047446826832</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715284  MarketName = Last Team To Score  MarketID = 222398275  SelectorError = 0.9417509591907918</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715315  MarketName = Race To th Goal  MarketID = 223254332  SelectorError = 0.6928323561086515</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715316  MarketName = Last Team To Score  MarketID = 222784419  SelectorError = 0.9860649018756931</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715357  MarketName = Race To th Goal  MarketID = 223116877  SelectorError = 0.5574712643678161</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715380  MarketName = Last Team To Score  MarketID = 222643464  SelectorError = 0.9821428571428572</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715403  MarketName = Last Team To Score  MarketID = 222014327  SelectorError = 0.9808612440191387</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715451  MarketName = Last Team To Score  MarketID = 222105728  SelectorError = 0.9862352774230168</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715565  MarketName = Last Team To Score  MarketID = 223036270  SelectorError = 0.9876182831010242</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715565  MarketName = Race To th Goal  MarketID = 223043778  SelectorError = 0.26143790849673204</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715565  MarketName = Race To th Goal  MarketID = 223043779  SelectorError = 0.6007360369461683</t>
+    <t>This market works for Client  GameID = 3715277  MarketName = Last Team To Score  MarketID = 222886639  SelectorError = 0.9772195018096658</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715284  MarketName = Last Team To Score  MarketID = 222398275  SelectorError = 0.9420258896911181</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715565  MarketName = Last Team To Score  MarketID = 223036270  SelectorError = 0.9805801965955407</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715565  MarketName = Race To th Goal  MarketID = 223043778  SelectorError = 0.2557544757033248</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715565  MarketName = Race To th Goal  MarketID = 223043779  SelectorError = 0.5875248037270295</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3736436  MarketName = Last Team To Score  MarketID = 222863357  SelectorError = 0.9786350988067726</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3732140  MarketName = Last Team To Score  MarketID = 223322558  SelectorError = 0.9777389786119598</t>
+    <t>This market works for Client  GameID = 3736438  MarketName = Race To th Goal  MarketID = 224111907  SelectorError = 0.6734752866364775</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738510  MarketName = Race To th Goal  MarketID = 222945153  SelectorError = 0.28458360513155034</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3765354  MarketName = 1 Half Correct Score  MarketID = 224164710  SelectorError = 0.7875404993784942</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740517  MarketName = Last Team To Score  MarketID = 223665722  SelectorError = 0.9737985147821213</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3745268  MarketName = Race To th Goal  MarketID = 223532709  SelectorError = 0.2714440825190011</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3745273  MarketName = Last Team To Score  MarketID = 223149189  SelectorError = 0.9913793103448276</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3745334  MarketName = Race To th Goal  MarketID = 223540410  SelectorError = 0.2897462249980236</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3745342  MarketName = Last Team To Score  MarketID = 223323331  SelectorError = 0.9876182831010242</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3745344  MarketName = Last Team To Score  MarketID = 223239043  SelectorError = 0.9889710338140831</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3745344  MarketName = Race To th Goal  MarketID = 223252360  SelectorError = 0.6056343174510377</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3745344  MarketName = Race To th Goal  MarketID = 223277211  SelectorError = 0.2693613569639153</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3746748  MarketName = Last Team To Score  MarketID = 223324175  SelectorError = 0.9899791838117828</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3746748  MarketName = Race To th Goal  MarketID = 223286031  SelectorError = 0.6069511883465372</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3746748  MarketName = Race To th Goal  MarketID = 223296444  SelectorError = 0.25937796174802996</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -274,7 +303,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -292,719 +321,471 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="143.7109375" customWidth="1"/>
+    <col min="1" max="1" width="78.125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetSoccerDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetSoccerDataErrorMarketsList.xlsx
@@ -12,276 +12,1077 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
-  <si>
-    <t>This market works for Client  GameID = 3246416  MarketName = Last Team To Score  MarketID = 206895756  SelectorError = 0.9926997025457207</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246416  MarketName = To Win Both Halves  MarketID = 206895767  SelectorError = 0.2922686450605232</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246416  MarketName = To Score in Both Halves  MarketID = 206895754  SelectorError = 0.4663003663003663</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246416  MarketName = To Win To Nil  MarketID = 206895765  SelectorError = 0.6000861883214824</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246418  MarketName = To Win Both Halves  MarketID = 206895843  SelectorError = 0.5013071895424837</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246418  MarketName = To Win To Nil  MarketID = 206895841  SelectorError = 0.743071041733036</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246418  MarketName = To Score in Both Halves  MarketID = 206895832  SelectorError = 0.6605491734379378</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246419  MarketName = To Win Both Halves  MarketID = 206895912  SelectorError = 0.3317166704263478</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246419  MarketName = To Score in Both Halves  MarketID = 206895899  SelectorError = 0.5626287564613556</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246419  MarketName = To Win To Nil  MarketID = 206895910  SelectorError = 0.5651162790697675</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246420  MarketName = Last Team To Score  MarketID = 206895963  SelectorError = 0.9969441016609359</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246420  MarketName = To Win Both Halves  MarketID = 206895980  SelectorError = 0.3131868131868132</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246420  MarketName = To Score in Both Halves  MarketID = 206895971  SelectorError = 0.5300581771170007</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246420  MarketName = To Win To Nil  MarketID = 206895978  SelectorError = 0.5901960784313726</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246421  MarketName = To Win Both Halves  MarketID = 206896049  SelectorError = 0.36601007787448464</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246421  MarketName = To Win To Nil  MarketID = 206896047  SelectorError = 0.6661411115490737</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246421  MarketName = To Score in Both Halves  MarketID = 206896040  SelectorError = 0.5901960784313726</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246422  MarketName = To Win Both Halves  MarketID = 206896120  SelectorError = 0.42702702702702705</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246422  MarketName = To Win To Nil  MarketID = 206896118  SelectorError = 0.5884952743591487</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246422  MarketName = To Score in Both Halves  MarketID = 206896107  SelectorError = 0.6593406593406592</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246423  MarketName = Last Team To Score  MarketID = 206896171  SelectorError = 0.9971760129868042</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246423  MarketName = To Win Both Halves  MarketID = 206896188  SelectorError = 0.22210012210012212</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246423  MarketName = To Win To Nil  MarketID = 206896186  SelectorError = 0.5192240522313871</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246423  MarketName = To Score in Both Halves  MarketID = 206896179  SelectorError = 0.5192240522313871</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246424  MarketName = Last Team To Score  MarketID = 206896243  SelectorError = 0.9920692842893981</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246424  MarketName = To Win Both Halves  MarketID = 206896254  SelectorError = 0.24878048780487805</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246424  MarketName = To Score in Both Halves  MarketID = 206896241  SelectorError = 0.43656553090515354</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246424  MarketName = To Win To Nil  MarketID = 206896252  SelectorError = 0.60973337209389</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246425  MarketName = Last Team To Score  MarketID = 206896309  SelectorError = 0.9932033788174139</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246425  MarketName = To Win Both Halves  MarketID = 206896320  SelectorError = 0.2523560209424084</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246425  MarketName = To Win To Nil  MarketID = 206896318  SelectorError = 0.5771539384984763</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246425  MarketName = To Score in Both Halves  MarketID = 206896307  SelectorError = 0.4457247175693778</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246426  MarketName = To Win Both Halves  MarketID = 206896391  SelectorError = 0.44190719766167336</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246426  MarketName = To Win To Nil  MarketID = 206896389  SelectorError = 0.6673447034892819</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246426  MarketName = To Score in Both Halves  MarketID = 206896378  SelectorError = 0.6813953488372093</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246427  MarketName = To Win Both Halves  MarketID = 206896459  SelectorError = 0.2932792653109905</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246427  MarketName = To Win To Nil  MarketID = 206896457  SelectorError = 0.5778912717238708</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246427  MarketName = To Score in Both Halves  MarketID = 206896450  SelectorError = 0.5373626373626373</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246428  MarketName = To Win Both Halves  MarketID = 206896527  SelectorError = 0.24173163398344996</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246428  MarketName = To Score in Both Halves  MarketID = 206896514  SelectorError = 0.5342456285852513</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246428  MarketName = To Win To Nil  MarketID = 206896525  SelectorError = 0.5144654088050314</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246429  MarketName = Last Team To Score  MarketID = 206896582  SelectorError = 0.9994781090467424</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246429  MarketName = To Win Both Halves  MarketID = 206896593  SelectorError = 0.24128971803390406</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246429  MarketName = To Score in Both Halves  MarketID = 206896580  SelectorError = 0.47145128007661696</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3246429  MarketName = To Win To Nil  MarketID = 206896591  SelectorError = 0.5355051040330228</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3453871  MarketName = Last Team To Score  MarketID = 215155544  SelectorError = 0.9594298245614036</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3453871  MarketName = To Win Both Halves  MarketID = 213577989  SelectorError = 0.2098901098901099</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3453871  MarketName = To Win To Nil  MarketID = 213577987  SelectorError = 0.5470622385637941</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3453871  MarketName = To Score in Both Halves  MarketID = 213577956  SelectorError = 0.4444987775061125</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3479223  MarketName = To Win Both Halves  MarketID = 214207471  SelectorError = 0.48685540950455003</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3479223  MarketName = To Win To Nil  MarketID = 214207445  SelectorError = 0.7059607059607059</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3479223  MarketName = To Score in Both Halves  MarketID = 214207405  SelectorError = 0.6871554012660813</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3482561  MarketName = To Win Both Halves  MarketID = 214282516  SelectorError = 0.44190719766167336</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3482561  MarketName = To Score in Both Halves  MarketID = 214282452  SelectorError = 0.5884952743591487</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3482561  MarketName = To Win To Nil  MarketID = 214282491  SelectorError = 0.7142857142857142</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715755  MarketName = Last Team To Score  MarketID = 223673507  SelectorError = 0.9618850243287078</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715772  MarketName = Last Team To Score  MarketID = 222197249  SelectorError = 0.9964036386714619</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715776  MarketName = Last Team To Score  MarketID = 224058363  SelectorError = 0.9821428571428572</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715787  MarketName = Last Team To Score  MarketID = 223080769  SelectorError = 0.9887650712458895</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715798  MarketName = Last Team To Score  MarketID = 223080771  SelectorError = 0.9822877080694268</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746659  MarketName = Paris Saint-Germain Exact Goals  MarketID = 223286654  SelectorError = 0.9432120311129844</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754774  MarketName = Race To th Goal  MarketID = 223667290  SelectorError = 0.31850031850031846</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754868  MarketName = Race To th Goal  MarketID = 223667268  SelectorError = 0.3468846424511449</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754884  MarketName = Race To th Goal  MarketID = 224155777  SelectorError = 0.3013503203116888</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754884  MarketName = Race To th Goal  MarketID = 224110693  SelectorError = 0.65559346767098</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715258  MarketName = Last Team To Score  MarketID = 223619499  SelectorError = 0.957514556040757</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715260  MarketName = Last Team To Score  MarketID = 222360412  SelectorError = 0.9860649018756931</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715264  MarketName = Last Team To Score  MarketID = 222197573  SelectorError = 0.9412634233294204</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715269  MarketName = Last Team To Score  MarketID = 222359394  SelectorError = 0.9616234857193386</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715276  MarketName = Last Team To Score  MarketID = 222359467  SelectorError = 0.9625690493857696</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715277  MarketName = Last Team To Score  MarketID = 222886639  SelectorError = 0.9772195018096658</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715284  MarketName = Last Team To Score  MarketID = 222398275  SelectorError = 0.9420258896911181</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715565  MarketName = Last Team To Score  MarketID = 223036270  SelectorError = 0.9805801965955407</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715565  MarketName = Race To th Goal  MarketID = 223043778  SelectorError = 0.2557544757033248</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715565  MarketName = Race To th Goal  MarketID = 223043779  SelectorError = 0.5875248037270295</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736436  MarketName = Last Team To Score  MarketID = 222863357  SelectorError = 0.9786350988067726</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3736438  MarketName = Race To th Goal  MarketID = 224111907  SelectorError = 0.6734752866364775</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738510  MarketName = Race To th Goal  MarketID = 222945153  SelectorError = 0.28458360513155034</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3765354  MarketName = 1 Half Correct Score  MarketID = 224164710  SelectorError = 0.7875404993784942</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740517  MarketName = Last Team To Score  MarketID = 223665722  SelectorError = 0.9737985147821213</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3745268  MarketName = Race To th Goal  MarketID = 223532709  SelectorError = 0.2714440825190011</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3745273  MarketName = Last Team To Score  MarketID = 223149189  SelectorError = 0.9913793103448276</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3745334  MarketName = Race To th Goal  MarketID = 223540410  SelectorError = 0.2897462249980236</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3745342  MarketName = Last Team To Score  MarketID = 223323331  SelectorError = 0.9876182831010242</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3745344  MarketName = Last Team To Score  MarketID = 223239043  SelectorError = 0.9889710338140831</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3745344  MarketName = Race To th Goal  MarketID = 223252360  SelectorError = 0.6056343174510377</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3745344  MarketName = Race To th Goal  MarketID = 223277211  SelectorError = 0.2693613569639153</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746748  MarketName = Last Team To Score  MarketID = 223324175  SelectorError = 0.9899791838117828</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746748  MarketName = Race To th Goal  MarketID = 223286031  SelectorError = 0.6069511883465372</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746748  MarketName = Race To th Goal  MarketID = 223296444  SelectorError = 0.25937796174802996</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+  <si>
+    <t>1This market works for Client  GameID = 3772731  MarketName = 1 Half Correct Score  MarketID = 224431350  SelectorError = 0.9535488143322169</t>
+  </si>
+  <si>
+    <t>2This market works for Client  GameID = 3246416  MarketName = Last Team To Score  MarketID = 206895756  SelectorError = 0.9926997025457207</t>
+  </si>
+  <si>
+    <t>3This market works for Client  GameID = 3246416  MarketName = To Win Both Halves  MarketID = 206895767  SelectorError = 0.2654296408377797</t>
+  </si>
+  <si>
+    <t>4This market works for Client  GameID = 3246416  MarketName = To Win To Nil  MarketID = 206895765  SelectorError = 0.5444444444444444</t>
+  </si>
+  <si>
+    <t>5This market works for Client  GameID = 3246416  MarketName = To Score in Both Halves  MarketID = 206895754  SelectorError = 0.4242424242424242</t>
+  </si>
+  <si>
+    <t>6This market works for Client  GameID = 3246418  MarketName = To Win Both Halves  MarketID = 206895843  SelectorError = 0.45444444444444443</t>
+  </si>
+  <si>
+    <t>7This market works for Client  GameID = 3246418  MarketName = To Score in Both Halves  MarketID = 206895832  SelectorError = 0.5990796663790623</t>
+  </si>
+  <si>
+    <t>8This market works for Client  GameID = 3246418  MarketName = To Win To Nil  MarketID = 206895841  SelectorError = 0.6737495913697287</t>
+  </si>
+  <si>
+    <t>9This market works for Client  GameID = 3246419  MarketName = To Win Both Halves  MarketID = 206895912  SelectorError = 0.30114942528735633</t>
+  </si>
+  <si>
+    <t>10This market works for Client  GameID = 3246419  MarketName = To Score in Both Halves  MarketID = 206895899  SelectorError = 0.5111111111111111</t>
+  </si>
+  <si>
+    <t>11This market works for Client  GameID = 3246419  MarketName = To Win To Nil  MarketID = 206895910  SelectorError = 0.5128500191791331</t>
+  </si>
+  <si>
+    <t>12This market works for Client  GameID = 3246420  MarketName = Last Team To Score  MarketID = 206895963  SelectorError = 0.9969441016609359</t>
+  </si>
+  <si>
+    <t>13This market works for Client  GameID = 3246420  MarketName = To Win Both Halves  MarketID = 206895980  SelectorError = 0.28448275862068967</t>
+  </si>
+  <si>
+    <t>14This market works for Client  GameID = 3246420  MarketName = To Score in Both Halves  MarketID = 206895971  SelectorError = 0.48167938931297705</t>
+  </si>
+  <si>
+    <t>15This market works for Client  GameID = 3246420  MarketName = To Win To Nil  MarketID = 206895978  SelectorError = 0.5353535353535354</t>
+  </si>
+  <si>
+    <t>16This market works for Client  GameID = 3246421  MarketName = To Win Both Halves  MarketID = 206896049  SelectorError = 0.33208255159474676</t>
+  </si>
+  <si>
+    <t>17This market works for Client  GameID = 3246421  MarketName = To Score in Both Halves  MarketID = 206896040  SelectorError = 0.5353535353535354</t>
+  </si>
+  <si>
+    <t>18This market works for Client  GameID = 3246421  MarketName = To Win To Nil  MarketID = 206896047  SelectorError = 0.6032388663967612</t>
+  </si>
+  <si>
+    <t>19This market works for Client  GameID = 3246422  MarketName = To Win Both Halves  MarketID = 206896120  SelectorError = 0.3880266075388027</t>
+  </si>
+  <si>
+    <t>20This market works for Client  GameID = 3246422  MarketName = To Score in Both Halves  MarketID = 206896107  SelectorError = 0.6</t>
+  </si>
+  <si>
+    <t>21This market works for Client  GameID = 3246422  MarketName = To Win To Nil  MarketID = 206896118  SelectorError = 0.5350140056022409</t>
+  </si>
+  <si>
+    <t>22This market works for Client  GameID = 3246423  MarketName = Last Team To Score  MarketID = 206896171  SelectorError = 0.9971760129868042</t>
+  </si>
+  <si>
+    <t>23This market works for Client  GameID = 3246423  MarketName = To Win Both Halves  MarketID = 206896188  SelectorError = 0.20202020202020202</t>
+  </si>
+  <si>
+    <t>24This market works for Client  GameID = 3246423  MarketName = To Win To Nil  MarketID = 206896186  SelectorError = 0.4722222222222222</t>
+  </si>
+  <si>
+    <t>25This market works for Client  GameID = 3246423  MarketName = To Score in Both Halves  MarketID = 206896179  SelectorError = 0.4722222222222222</t>
+  </si>
+  <si>
+    <t>26This market works for Client  GameID = 3246424  MarketName = Last Team To Score  MarketID = 206896243  SelectorError = 0.9920692842893981</t>
+  </si>
+  <si>
+    <t>27This market works for Client  GameID = 3246424  MarketName = To Win Both Halves  MarketID = 206896254  SelectorError = 0.22529644268774704</t>
+  </si>
+  <si>
+    <t>28This market works for Client  GameID = 3246424  MarketName = To Score in Both Halves  MarketID = 206896241  SelectorError = 0.3968253968253968</t>
+  </si>
+  <si>
+    <t>29This market works for Client  GameID = 3246424  MarketName = To Win To Nil  MarketID = 206896252  SelectorError = 0.5538461538461539</t>
+  </si>
+  <si>
+    <t>30This market works for Client  GameID = 3246425  MarketName = Last Team To Score  MarketID = 206896309  SelectorError = 0.9932033788174139</t>
+  </si>
+  <si>
+    <t>31This market works for Client  GameID = 3246425  MarketName = To Win Both Halves  MarketID = 206896320  SelectorError = 0.22943722943722944</t>
+  </si>
+  <si>
+    <t>32This market works for Client  GameID = 3246425  MarketName = To Score in Both Halves  MarketID = 206896307  SelectorError = 0.40522875816993464</t>
+  </si>
+  <si>
+    <t>33This market works for Client  GameID = 3246425  MarketName = To Win To Nil  MarketID = 206896318  SelectorError = 0.5245365321701199</t>
+  </si>
+  <si>
+    <t>34This market works for Client  GameID = 3246426  MarketName = To Win Both Halves  MarketID = 206896391  SelectorError = 0.40128723245023196</t>
+  </si>
+  <si>
+    <t>35This market works for Client  GameID = 3246426  MarketName = To Score in Both Halves  MarketID = 206896378  SelectorError = 0.6172248803827751</t>
+  </si>
+  <si>
+    <t>36This market works for Client  GameID = 3246426  MarketName = To Win To Nil  MarketID = 206896389  SelectorError = 0.6052716168434586</t>
+  </si>
+  <si>
+    <t>37This market works for Client  GameID = 3246427  MarketName = To Win Both Halves  MarketID = 206896459  SelectorError = 0.2657004830917874</t>
+  </si>
+  <si>
+    <t>38This market works for Client  GameID = 3246427  MarketName = To Score in Both Halves  MarketID = 206896450  SelectorError = 0.48863636363636365</t>
+  </si>
+  <si>
+    <t>39This market works for Client  GameID = 3246427  MarketName = To Win To Nil  MarketID = 206896457  SelectorError = 0.525</t>
+  </si>
+  <si>
+    <t>40This market works for Client  GameID = 3246428  MarketName = To Win Both Halves  MarketID = 206896527  SelectorError = 0.21978021978021978</t>
+  </si>
+  <si>
+    <t>41This market works for Client  GameID = 3246428  MarketName = To Score in Both Halves  MarketID = 206896514  SelectorError = 0.4857142857142857</t>
+  </si>
+  <si>
+    <t>42This market works for Client  GameID = 3246428  MarketName = To Win To Nil  MarketID = 206896525  SelectorError = 0.4675324675324675</t>
+  </si>
+  <si>
+    <t>43This market works for Client  GameID = 3246429  MarketName = Last Team To Score  MarketID = 206896582  SelectorError = 0.9994781090467424</t>
+  </si>
+  <si>
+    <t>44This market works for Client  GameID = 3246429  MarketName = To Win Both Halves  MarketID = 206896593  SelectorError = 0.21929824561403508</t>
+  </si>
+  <si>
+    <t>45This market works for Client  GameID = 3246429  MarketName = To Score in Both Halves  MarketID = 206896580  SelectorError = 0.42857142857142855</t>
+  </si>
+  <si>
+    <t>46This market works for Client  GameID = 3246429  MarketName = To Win To Nil  MarketID = 206896591  SelectorError = 0.48717948717948717</t>
+  </si>
+  <si>
+    <t>47This market works for Client  GameID = 3453871  MarketName = Last Team To Score  MarketID = 215155544  SelectorError = 0.9594298245614036</t>
+  </si>
+  <si>
+    <t>48This market works for Client  GameID = 3453871  MarketName = To Win Both Halves  MarketID = 213577989  SelectorError = 0.19090909090909092</t>
+  </si>
+  <si>
+    <t>49This market works for Client  GameID = 3453871  MarketName = To Score in Both Halves  MarketID = 213577956  SelectorError = 0.40404040404040403</t>
+  </si>
+  <si>
+    <t>50This market works for Client  GameID = 3453871  MarketName = To Win To Nil  MarketID = 213577987  SelectorError = 0.49761354888375675</t>
+  </si>
+  <si>
+    <t>51This market works for Client  GameID = 3479223  MarketName = To Win Both Halves  MarketID = 214207471  SelectorError = 0.44154877140729704</t>
+  </si>
+  <si>
+    <t>52This market works for Client  GameID = 3479223  MarketName = To Score in Both Halves  MarketID = 214207405  SelectorError = 0.6233711643547708</t>
+  </si>
+  <si>
+    <t>53This market works for Client  GameID = 3479223  MarketName = To Win To Nil  MarketID = 214207445  SelectorError = 0.640218878248974</t>
+  </si>
+  <si>
+    <t>54This market works for Client  GameID = 3482561  MarketName = To Win Both Halves  MarketID = 214282516  SelectorError = 0.40128723245023196</t>
+  </si>
+  <si>
+    <t>55This market works for Client  GameID = 3482561  MarketName = To Score in Both Halves  MarketID = 214282452  SelectorError = 0.5350140056022409</t>
+  </si>
+  <si>
+    <t>56This market works for Client  GameID = 3482561  MarketName = To Win To Nil  MarketID = 214282491  SelectorError = 0.648062015503876</t>
+  </si>
+  <si>
+    <t>57This market works for Client  GameID = 3715755  MarketName = Last Team To Score  MarketID = 223673507  SelectorError = 0.9618850243287078</t>
+  </si>
+  <si>
+    <t>58This market works for Client  GameID = 3715772  MarketName = Last Team To Score  MarketID = 222197249  SelectorError = 0.9964036386714619</t>
+  </si>
+  <si>
+    <t>59This market works for Client  GameID = 3715776  MarketName = Last Team To Score  MarketID = 224058363  SelectorError = 0.9825006225522378</t>
+  </si>
+  <si>
+    <t>60This market works for Client  GameID = 3715787  MarketName = Last Team To Score  MarketID = 223080769  SelectorError = 0.9887650712458895</t>
+  </si>
+  <si>
+    <t>61This market works for Client  GameID = 3715798  MarketName = Last Team To Score  MarketID = 223080771  SelectorError = 0.9822877080694268</t>
+  </si>
+  <si>
+    <t>62This market works for Client  GameID = 3746654  MarketName = To Win Both Halves  MarketID = 224293415  SelectorError = 0.21978021978021978</t>
+  </si>
+  <si>
+    <t>63This market works for Client  GameID = 3746654  MarketName = To Score in Both Halves  MarketID = 224293416  SelectorError = 0.5163398692810457</t>
+  </si>
+  <si>
+    <t>64This market works for Client  GameID = 3746654  MarketName = To Win To Nil  MarketID = 224293417  SelectorError = 0.43333333333333335</t>
+  </si>
+  <si>
+    <t>65This market works for Client  GameID = 3746655  MarketName = To Win Both Halves  MarketID = 224293538  SelectorError = 0.23376623376623376</t>
+  </si>
+  <si>
+    <t>66This market works for Client  GameID = 3746655  MarketName = To Score in Both Halves  MarketID = 224293541  SelectorError = 0.5743589743589743</t>
+  </si>
+  <si>
+    <t>67This market works for Client  GameID = 3746655  MarketName = To Win To Nil  MarketID = 224293540  SelectorError = 0.41666666666666663</t>
+  </si>
+  <si>
+    <t>68This market works for Client  GameID = 3746656  MarketName = To Win Both Halves  MarketID = 224293424  SelectorError = 0.21978021978021978</t>
+  </si>
+  <si>
+    <t>69This market works for Client  GameID = 3746656  MarketName = To Win To Nil  MarketID = 224293425  SelectorError = 0.4484848484848485</t>
+  </si>
+  <si>
+    <t>70This market works for Client  GameID = 3746656  MarketName = To Score in Both Halves  MarketID = 224293426  SelectorError = 0.5079365079365079</t>
+  </si>
+  <si>
+    <t>71This market works for Client  GameID = 3746658  MarketName = To Win Both Halves  MarketID = 224293581  SelectorError = 0.3142857142857143</t>
+  </si>
+  <si>
+    <t>72This market works for Client  GameID = 3746658  MarketName = To Score in Both Halves  MarketID = 224293582  SelectorError = 0.6761904761904762</t>
+  </si>
+  <si>
+    <t>73This market works for Client  GameID = 3746658  MarketName = To Win To Nil  MarketID = 224293583  SelectorError = 0.39860139860139865</t>
+  </si>
+  <si>
+    <t>74This market works for Client  GameID = 3746659  MarketName = To Win Both Halves  MarketID = 224293475  SelectorError = 0.5149253731343284</t>
+  </si>
+  <si>
+    <t>75This market works for Client  GameID = 3746659  MarketName = Paris Saint-Germain Exact Goals  MarketID = 223286654  SelectorError = 0.9436282483255604</t>
+  </si>
+  <si>
+    <t>76This market works for Client  GameID = 3746659  MarketName = To Score in Both Halves  MarketID = 224293476  SelectorError = 0.7666666666666666</t>
+  </si>
+  <si>
+    <t>77This market works for Client  GameID = 3746659  MarketName = To Win To Nil  MarketID = 224293477  SelectorError = 0.5384615384615384</t>
+  </si>
+  <si>
+    <t>78This market works for Client  GameID = 3746660  MarketName = To Win Both Halves  MarketID = 224293620  SelectorError = 0.4741532976827094</t>
+  </si>
+  <si>
+    <t>79This market works for Client  GameID = 3746660  MarketName = To Score in Both Halves  MarketID = 224293622  SelectorError = 0.7480537862703467</t>
+  </si>
+  <si>
+    <t>80This market works for Client  GameID = 3746660  MarketName = To Win To Nil  MarketID = 224293621  SelectorError = 0.5196687370600414</t>
+  </si>
+  <si>
+    <t>81This market works for Client  GameID = 3746661  MarketName = To Win Both Halves  MarketID = 224293647  SelectorError = 0.367816091954023</t>
+  </si>
+  <si>
+    <t>82This market works for Client  GameID = 3746661  MarketName = To Win To Nil  MarketID = 224293648  SelectorError = 0.5111111111111111</t>
+  </si>
+  <si>
+    <t>83This market works for Client  GameID = 3746661  MarketName = To Score in Both Halves  MarketID = 224293649  SelectorError = 0.6691729323308271</t>
+  </si>
+  <si>
+    <t>84This market works for Client  GameID = 3746662  MarketName = To Win Both Halves  MarketID = 224293687  SelectorError = 0.40128723245023196</t>
+  </si>
+  <si>
+    <t>85This market works for Client  GameID = 3746662  MarketName = To Score in Both Halves  MarketID = 224293688  SelectorError = 0.6373571783407849</t>
+  </si>
+  <si>
+    <t>86This market works for Client  GameID = 3746662  MarketName = To Win To Nil  MarketID = 224293689  SelectorError = 0.5990796663790623</t>
+  </si>
+  <si>
+    <t>87This market works for Client  GameID = 3750592  MarketName = To Win Both Halves  MarketID = 224293675  SelectorError = 0.24848484848484848</t>
+  </si>
+  <si>
+    <t>88This market works for Client  GameID = 3750592  MarketName = To Win To Nil  MarketID = 224293682  SelectorError = 0.41911764705882354</t>
+  </si>
+  <si>
+    <t>89This market works for Client  GameID = 3750592  MarketName = To Score in Both Halves  MarketID = 224293683  SelectorError = 0.6039016115351993</t>
+  </si>
+  <si>
+    <t>90This market works for Client  GameID = 3774106  MarketName = 1 Half Correct Score  MarketID = 224513199  SelectorError = 0.9530719148815819</t>
+  </si>
+  <si>
+    <t>91This market works for Client  GameID = 3774107  MarketName = 1 Half Correct Score  MarketID = 224513249  SelectorError = 0.6293374777793326</t>
+  </si>
+  <si>
+    <t>92This market works for Client  GameID = 3774111  MarketName = Last Team To Score  MarketID = 224548258  SelectorError = 0.9891674105527275</t>
+  </si>
+  <si>
+    <t>93This market works for Client  GameID = 3774111  MarketName = 1 Half Correct Score  MarketID = 224513243  SelectorError = 0.7939135388786375</t>
+  </si>
+  <si>
+    <t>94This market works for Client  GameID = 3774112  MarketName = 1 Half Correct Score  MarketID = 224513203  SelectorError = 0.7633189830218925</t>
+  </si>
+  <si>
+    <t>95This market works for Client  GameID = 3774115  MarketName = 1 Half Correct Score  MarketID = 224513247  SelectorError = 0.43990707066671625</t>
+  </si>
+  <si>
+    <t>96This market works for Client  GameID = 3774120  MarketName = 1 Half Correct Score  MarketID = 224513263  SelectorError = 0.7929249758009047</t>
+  </si>
+  <si>
+    <t>97This market works for Client  GameID = 3774145  MarketName = 1 Half Correct Score  MarketID = 224512073  SelectorError = 0.7253670172096323</t>
+  </si>
+  <si>
+    <t>98This market works for Client  GameID = 3754772  MarketName = To Win Both Halves  MarketID = 224293441  SelectorError = 0.23096981136192543</t>
+  </si>
+  <si>
+    <t>99This market works for Client  GameID = 3754772  MarketName = To Win To Nil  MarketID = 224293440  SelectorError = 0.42857142857142855</t>
+  </si>
+  <si>
+    <t>100This market works for Client  GameID = 3754772  MarketName = To Score in Both Halves  MarketID = 224293438  SelectorError = 0.5794924499960472</t>
+  </si>
+  <si>
+    <t>101This market works for Client  GameID = 3754773  MarketName = To Win Both Halves  MarketID = 224293666  SelectorError = 0.20746810341602126</t>
+  </si>
+  <si>
+    <t>102This market works for Client  GameID = 3754773  MarketName = To Score in Both Halves  MarketID = 224293667  SelectorError = 0.39973175399731753</t>
+  </si>
+  <si>
+    <t>103This market works for Client  GameID = 3754773  MarketName = To Win To Nil  MarketID = 224293668  SelectorError = 0.48951048951048953</t>
+  </si>
+  <si>
+    <t>104This market works for Client  GameID = 3754774  MarketName = To Win Both Halves  MarketID = 224293578  SelectorError = 0.21369948440405795</t>
+  </si>
+  <si>
+    <t>105This market works for Client  GameID = 3754774  MarketName = To Win To Nil  MarketID = 224293579  SelectorError = 0.4318181818181818</t>
+  </si>
+  <si>
+    <t>106This market works for Client  GameID = 3754774  MarketName = To Score in Both Halves  MarketID = 224293580  SelectorError = 0.5107963779893198</t>
+  </si>
+  <si>
+    <t>107This market works for Client  GameID = 3754775  MarketName = To Win Both Halves  MarketID = 224293720  SelectorError = 0.41486476013330237</t>
+  </si>
+  <si>
+    <t>108This market works for Client  GameID = 3754775  MarketName = To Score in Both Halves  MarketID = 224293721  SelectorError = 0.6306306306306305</t>
+  </si>
+  <si>
+    <t>109This market works for Client  GameID = 3754775  MarketName = To Win To Nil  MarketID = 224293722  SelectorError = 0.5526315789473684</t>
+  </si>
+  <si>
+    <t>110This market works for Client  GameID = 3754791  MarketName = To Win Both Halves  MarketID = 224293616  SelectorError = 0.1999801999802</t>
+  </si>
+  <si>
+    <t>111This market works for Client  GameID = 3754791  MarketName = To Score in Both Halves  MarketID = 224293614  SelectorError = 0.4921627450271684</t>
+  </si>
+  <si>
+    <t>112This market works for Client  GameID = 3754791  MarketName = To Win To Nil  MarketID = 224293615  SelectorError = 0.45</t>
+  </si>
+  <si>
+    <t>113This market works for Client  GameID = 3754792  MarketName = To Win Both Halves  MarketID = 224293711  SelectorError = 0.505049504950495</t>
+  </si>
+  <si>
+    <t>114This market works for Client  GameID = 3754792  MarketName = To Win To Nil  MarketID = 224293713  SelectorError = 0.7101449275362318</t>
+  </si>
+  <si>
+    <t>115This market works for Client  GameID = 3754792  MarketName = To Score in Both Halves  MarketID = 224293712  SelectorError = 0.6428571428571428</t>
+  </si>
+  <si>
+    <t>116This market works for Client  GameID = 3754793  MarketName = To Win Both Halves  MarketID = 224293635  SelectorError = 0.2910030133448127</t>
+  </si>
+  <si>
+    <t>117This market works for Client  GameID = 3754793  MarketName = To Score in Both Halves  MarketID = 224293636  SelectorError = 0.5474639185181175</t>
+  </si>
+  <si>
+    <t>118This market works for Client  GameID = 3754793  MarketName = To Win To Nil  MarketID = 224293637  SelectorError = 0.48167938931297705</t>
+  </si>
+  <si>
+    <t>119This market works for Client  GameID = 3755651  MarketName = To Win Both Halves  MarketID = 224293853  SelectorError = 0.2910030133448127</t>
+  </si>
+  <si>
+    <t>120This market works for Client  GameID = 3755651  MarketName = To Score in Both Halves  MarketID = 224293850  SelectorError = 0.5927356358833035</t>
+  </si>
+  <si>
+    <t>121This market works for Client  GameID = 3755651  MarketName = To Win To Nil  MarketID = 224293852  SelectorError = 0.472588480222068</t>
+  </si>
+  <si>
+    <t>122This market works for Client  GameID = 3755652  MarketName = To Win Both Halves  MarketID = 224293884  SelectorError = 0.22288418068273244</t>
+  </si>
+  <si>
+    <t>123This market works for Client  GameID = 3755652  MarketName = To Score in Both Halves  MarketID = 224293885  SelectorError = 0.4554423202176162</t>
+  </si>
+  <si>
+    <t>124This market works for Client  GameID = 3755652  MarketName = To Win To Nil  MarketID = 224293886  SelectorError = 0.46153846153846156</t>
+  </si>
+  <si>
+    <t>125This market works for Client  GameID = 3755653  MarketName = To Win Both Halves  MarketID = 224293448  SelectorError = 0.2089000108802089</t>
+  </si>
+  <si>
+    <t>126This market works for Client  GameID = 3755653  MarketName = To Win To Nil  MarketID = 224293449  SelectorError = 0.4309468822170901</t>
+  </si>
+  <si>
+    <t>127This market works for Client  GameID = 3755653  MarketName = To Score in Both Halves  MarketID = 224293450  SelectorError = 0.5113769952193108</t>
+  </si>
+  <si>
+    <t>128This market works for Client  GameID = 3755654  MarketName = To Win Both Halves  MarketID = 224293601  SelectorError = 0.33428981348637016</t>
+  </si>
+  <si>
+    <t>129This market works for Client  GameID = 3755654  MarketName = To Score in Both Halves  MarketID = 224293599  SelectorError = 0.581588223097657</t>
+  </si>
+  <si>
+    <t>130This market works for Client  GameID = 3755654  MarketName = To Win To Nil  MarketID = 224293600  SelectorError = 0.5314685314685315</t>
+  </si>
+  <si>
+    <t>131This market works for Client  GameID = 3755655  MarketName = Last Team To Score  MarketID = 224168024  SelectorError = 0.9869126796824715</t>
+  </si>
+  <si>
+    <t>132This market works for Client  GameID = 3755655  MarketName = To Win Both Halves  MarketID = 224293630  SelectorError = 0.21369948440405795</t>
+  </si>
+  <si>
+    <t>133This market works for Client  GameID = 3755655  MarketName = To Score in Both Halves  MarketID = 224293627  SelectorError = 0.46148070124208707</t>
+  </si>
+  <si>
+    <t>134This market works for Client  GameID = 3755655  MarketName = To Win To Nil  MarketID = 224293628  SelectorError = 0.4666666666666667</t>
+  </si>
+  <si>
+    <t>135This market works for Client  GameID = 3755656  MarketName = To Win Both Halves  MarketID = 224293659  SelectorError = 0.19801980198019803</t>
+  </si>
+  <si>
+    <t>136This market works for Client  GameID = 3755656  MarketName = To Score in Both Halves  MarketID = 224293661  SelectorError = 0.4566210045662101</t>
+  </si>
+  <si>
+    <t>137This market works for Client  GameID = 3755656  MarketName = To Win To Nil  MarketID = 224293660  SelectorError = 0.4618937644341801</t>
+  </si>
+  <si>
+    <t>138This market works for Client  GameID = 3755657  MarketName = Last Team To Score  MarketID = 224241105  SelectorError = 0.9764309764309764</t>
+  </si>
+  <si>
+    <t>139This market works for Client  GameID = 3755657  MarketName = To Win Both Halves  MarketID = 224293436  SelectorError = 0.21034653640579093</t>
+  </si>
+  <si>
+    <t>140This market works for Client  GameID = 3755657  MarketName = To Win To Nil  MarketID = 224293439  SelectorError = 0.47435897435897434</t>
+  </si>
+  <si>
+    <t>141This market works for Client  GameID = 3755657  MarketName = To Score in Both Halves  MarketID = 224293437  SelectorError = 0.44723052150522624</t>
+  </si>
+  <si>
+    <t>142This market works for Client  GameID = 3755712  MarketName = To Win Both Halves  MarketID = 224293596  SelectorError = 0.5099748780848234</t>
+  </si>
+  <si>
+    <t>143This market works for Client  GameID = 3755712  MarketName = To Win To Nil  MarketID = 224293594  SelectorError = 0.5899263483012591</t>
+  </si>
+  <si>
+    <t>144This market works for Client  GameID = 3755712  MarketName = To Score in Both Halves  MarketID = 224293593  SelectorError = 0.7230014824951533</t>
+  </si>
+  <si>
+    <t>145This market works for Client  GameID = 3755713  MarketName = To Win Both Halves  MarketID = 224293631  SelectorError = 0.23193944844124703</t>
+  </si>
+  <si>
+    <t>146This market works for Client  GameID = 3755713  MarketName = To Score in Both Halves  MarketID = 224293626  SelectorError = 0.4947776490993415</t>
+  </si>
+  <si>
+    <t>147This market works for Client  GameID = 3755713  MarketName = To Win To Nil  MarketID = 224293629  SelectorError = 0.4583333333333333</t>
+  </si>
+  <si>
+    <t>148This market works for Client  GameID = 3754844  MarketName = To Win Both Halves  MarketID = 224293652  SelectorError = 0.3627450980392157</t>
+  </si>
+  <si>
+    <t>149This market works for Client  GameID = 3754844  MarketName = To Score in Both Halves  MarketID = 224293650  SelectorError = 0.6111111111111112</t>
+  </si>
+  <si>
+    <t>150This market works for Client  GameID = 3754844  MarketName = To Win To Nil  MarketID = 224293651  SelectorError = 0.5212121212121212</t>
+  </si>
+  <si>
+    <t>151This market works for Client  GameID = 3754845  MarketName = To Win Both Halves  MarketID = 224293695  SelectorError = 0.2159090909090909</t>
+  </si>
+  <si>
+    <t>152This market works for Client  GameID = 3754845  MarketName = To Score in Both Halves  MarketID = 224293693  SelectorError = 0.49761354888375675</t>
+  </si>
+  <si>
+    <t>153This market works for Client  GameID = 3754845  MarketName = To Win To Nil  MarketID = 224293694  SelectorError = 0.45</t>
+  </si>
+  <si>
+    <t>154This market works for Client  GameID = 3754855  MarketName = To Win Both Halves  MarketID = 224293731  SelectorError = 0.45936981757877277</t>
+  </si>
+  <si>
+    <t>155This market works for Client  GameID = 3754855  MarketName = To Score in Both Halves  MarketID = 224293729  SelectorError = 0.6222222222222222</t>
+  </si>
+  <si>
+    <t>156This market works for Client  GameID = 3754855  MarketName = To Win To Nil  MarketID = 224293730  SelectorError = 0.6458878994237821</t>
+  </si>
+  <si>
+    <t>157This market works for Client  GameID = 3754868  MarketName = To Win Both Halves  MarketID = 224293701  SelectorError = 0.27485380116959063</t>
+  </si>
+  <si>
+    <t>158This market works for Client  GameID = 3754868  MarketName = To Score in Both Halves  MarketID = 224293699  SelectorError = 0.563497571131159</t>
+  </si>
+  <si>
+    <t>159This market works for Client  GameID = 3754868  MarketName = To Win To Nil  MarketID = 224293700  SelectorError = 0.4444444444444444</t>
+  </si>
+  <si>
+    <t>160This market works for Client  GameID = 3754869  MarketName = To Win Both Halves  MarketID = 224293878  SelectorError = 0.28846153846153844</t>
+  </si>
+  <si>
+    <t>161This market works for Client  GameID = 3754869  MarketName = To Score in Both Halves  MarketID = 224293875  SelectorError = 0.5066793893129771</t>
+  </si>
+  <si>
+    <t>162This market works for Client  GameID = 3754869  MarketName = To Win To Nil  MarketID = 224293877  SelectorError = 0.5219409282700421</t>
+  </si>
+  <si>
+    <t>163This market works for Client  GameID = 3754870  MarketName = To Win Both Halves  MarketID = 224293844  SelectorError = 0.51</t>
+  </si>
+  <si>
+    <t>164This market works for Client  GameID = 3754870  MarketName = To Score in Both Halves  MarketID = 224293842  SelectorError = 0.6877846790890269</t>
+  </si>
+  <si>
+    <t>165This market works for Client  GameID = 3754870  MarketName = To Win To Nil  MarketID = 224293843  SelectorError = 0.6458878994237821</t>
+  </si>
+  <si>
+    <t>166This market works for Client  GameID = 3754871  MarketName = To Win Both Halves  MarketID = 224293913  SelectorError = 0.3421750663129974</t>
+  </si>
+  <si>
+    <t>167This market works for Client  GameID = 3754871  MarketName = To Score in Both Halves  MarketID = 224293910  SelectorError = 0.6011904761904762</t>
+  </si>
+  <si>
+    <t>168This market works for Client  GameID = 3754871  MarketName = To Win To Nil  MarketID = 224293912  SelectorError = 0.5213675213675213</t>
+  </si>
+  <si>
+    <t>169This market works for Client  GameID = 3754872  MarketName = To Win Both Halves  MarketID = 224293492  SelectorError = 0.24848484848484848</t>
+  </si>
+  <si>
+    <t>170This market works for Client  GameID = 3754872  MarketName = To Score in Both Halves  MarketID = 224293490  SelectorError = 0.6126262715300671</t>
+  </si>
+  <si>
+    <t>171This market works for Client  GameID = 3754872  MarketName = To Win To Nil  MarketID = 224293491  SelectorError = 0.42857142857142855</t>
+  </si>
+  <si>
+    <t>172This market works for Client  GameID = 3754874  MarketName = To Win Both Halves  MarketID = 224293758  SelectorError = 0.44154877140729704</t>
+  </si>
+  <si>
+    <t>173This market works for Client  GameID = 3754874  MarketName = To Score in Both Halves  MarketID = 224293756  SelectorError = 0.6464646464646465</t>
+  </si>
+  <si>
+    <t>174This market works for Client  GameID = 3754874  MarketName = To Win To Nil  MarketID = 224293757  SelectorError = 0.5990796663790623</t>
+  </si>
+  <si>
+    <t>175This market works for Client  GameID = 3754876  MarketName = To Win Both Halves  MarketID = 224293453  SelectorError = 0.3142857142857143</t>
+  </si>
+  <si>
+    <t>176This market works for Client  GameID = 3754876  MarketName = To Score in Both Halves  MarketID = 224293451  SelectorError = 0.6363636363636364</t>
+  </si>
+  <si>
+    <t>177This market works for Client  GameID = 3754876  MarketName = To Win To Nil  MarketID = 224293452  SelectorError = 0.4242424242424242</t>
+  </si>
+  <si>
+    <t>178This market works for Client  GameID = 3754877  MarketName = To Win Both Halves  MarketID = 224293607  SelectorError = 0.21978021978021978</t>
+  </si>
+  <si>
+    <t>179This market works for Client  GameID = 3754877  MarketName = To Score in Both Halves  MarketID = 224293605  SelectorError = 0.5163398692810457</t>
+  </si>
+  <si>
+    <t>180This market works for Client  GameID = 3754877  MarketName = To Win To Nil  MarketID = 224293606  SelectorError = 0.4484848484848485</t>
+  </si>
+  <si>
+    <t>181This market works for Client  GameID = 3754878  MarketName = To Win Both Halves  MarketID = 224293634  SelectorError = 0.2698412698412698</t>
+  </si>
+  <si>
+    <t>182This market works for Client  GameID = 3754878  MarketName = To Win To Nil  MarketID = 224293633  SelectorError = 0.48863636363636365</t>
+  </si>
+  <si>
+    <t>183This market works for Client  GameID = 3754878  MarketName = To Score in Both Halves  MarketID = 224293632  SelectorError = 0.5174825174825175</t>
+  </si>
+  <si>
+    <t>184This market works for Client  GameID = 3754879  MarketName = To Win Both Halves  MarketID = 224293658  SelectorError = 0.35772357723577236</t>
+  </si>
+  <si>
+    <t>185This market works for Client  GameID = 3754879  MarketName = To Win To Nil  MarketID = 224293657  SelectorError = 0.5531135531135531</t>
+  </si>
+  <si>
+    <t>186This market works for Client  GameID = 3754879  MarketName = To Score in Both Halves  MarketID = 224293656  SelectorError = 0.5761904761904761</t>
+  </si>
+  <si>
+    <t>187This market works for Client  GameID = 3754884  MarketName = To Win Both Halves  MarketID = 224293423  SelectorError = 0.2111111111111111</t>
+  </si>
+  <si>
+    <t>188This market works for Client  GameID = 3754884  MarketName = To Score in Both Halves  MarketID = 224293421  SelectorError = 0.5166666666666666</t>
+  </si>
+  <si>
+    <t>189This market works for Client  GameID = 3754884  MarketName = To Win To Nil  MarketID = 224293422  SelectorError = 0.4309468822170901</t>
+  </si>
+  <si>
+    <t>190This market works for Client  GameID = 3754885  MarketName = To Win Both Halves  MarketID = 224293539  SelectorError = 0.20202020202020202</t>
+  </si>
+  <si>
+    <t>191This market works for Client  GameID = 3754885  MarketName = To Score in Both Halves  MarketID = 224293536  SelectorError = 0.49761354888375675</t>
+  </si>
+  <si>
+    <t>192This market works for Client  GameID = 3754885  MarketName = To Win To Nil  MarketID = 224293537  SelectorError = 0.45</t>
+  </si>
+  <si>
+    <t>193This market works for Client  GameID = 3715258  MarketName = Last Team To Score  MarketID = 223619499  SelectorError = 0.957514556040757</t>
+  </si>
+  <si>
+    <t>194This market works for Client  GameID = 3715260  MarketName = Last Team To Score  MarketID = 222360412  SelectorError = 0.9860649018756931</t>
+  </si>
+  <si>
+    <t>195This market works for Client  GameID = 3715260  MarketName = To Win Both Halves  MarketID = 224293469  SelectorError = 0.20202020202020202</t>
+  </si>
+  <si>
+    <t>196This market works for Client  GameID = 3715260  MarketName = To Win To Nil  MarketID = 224293470  SelectorError = 0.4722222222222222</t>
+  </si>
+  <si>
+    <t>197This market works for Client  GameID = 3715260  MarketName = To Score in Both Halves  MarketID = 224293471  SelectorError = 0.4722222222222222</t>
+  </si>
+  <si>
+    <t>198This market works for Client  GameID = 3715263  MarketName = To Win Both Halves  MarketID = 224293479  SelectorError = 0.38324420677361853</t>
+  </si>
+  <si>
+    <t>199This market works for Client  GameID = 3715263  MarketName = To Score in Both Halves  MarketID = 224293483  SelectorError = 0.5769230769230769</t>
+  </si>
+  <si>
+    <t>200This market works for Client  GameID = 3715263  MarketName = To Win To Nil  MarketID = 224293481  SelectorError = 0.6131147540983606</t>
+  </si>
+  <si>
+    <t>201This market works for Client  GameID = 3715264  MarketName = Last Team To Score  MarketID = 222197573  SelectorError = 0.9412634233294204</t>
+  </si>
+  <si>
+    <t>202This market works for Client  GameID = 3715266  MarketName = To Win Both Halves  MarketID = 224293402  SelectorError = 0.23444976076555024</t>
+  </si>
+  <si>
+    <t>203This market works for Client  GameID = 3715266  MarketName = To Score in Both Halves  MarketID = 224293400  SelectorError = 0.45054945054945056</t>
+  </si>
+  <si>
+    <t>204This market works for Client  GameID = 3715266  MarketName = To Win To Nil  MarketID = 224293401  SelectorError = 0.5064935064935066</t>
+  </si>
+  <si>
+    <t>205This market works for Client  GameID = 3715268  MarketName = To Win Both Halves  MarketID = 224293370  SelectorError = 0.19166666666666665</t>
+  </si>
+  <si>
+    <t>206This market works for Client  GameID = 3715268  MarketName = To Score in Both Halves  MarketID = 224293372  SelectorError = 0.40384615384615385</t>
+  </si>
+  <si>
+    <t>207This market works for Client  GameID = 3715268  MarketName = To Win To Nil  MarketID = 224293371  SelectorError = 0.48951048951048953</t>
+  </si>
+  <si>
+    <t>208This market works for Client  GameID = 3715269  MarketName = Last Team To Score  MarketID = 222359394  SelectorError = 0.9616234857193386</t>
+  </si>
+  <si>
+    <t>209This market works for Client  GameID = 3715271  MarketName = Last Team To Score  MarketID = 224414498  SelectorError = 0.9585808789449289</t>
+  </si>
+  <si>
+    <t>210This market works for Client  GameID = 3715272  MarketName = To Win Both Halves  MarketID = 224293461  SelectorError = 0.28846153846153844</t>
+  </si>
+  <si>
+    <t>211This market works for Client  GameID = 3715272  MarketName = To Win To Nil  MarketID = 224293463  SelectorError = 0.5444444444444444</t>
+  </si>
+  <si>
+    <t>212This market works for Client  GameID = 3715272  MarketName = To Score in Both Halves  MarketID = 224293465  SelectorError = 0.4927905004240882</t>
+  </si>
+  <si>
+    <t>213This market works for Client  GameID = 3715273  MarketName = To Win Both Halves  MarketID = 224293403  SelectorError = 0.3286004056795132</t>
+  </si>
+  <si>
+    <t>214This market works for Client  GameID = 3715273  MarketName = To Score in Both Halves  MarketID = 224293404  SelectorError = 0.5555555555555556</t>
+  </si>
+  <si>
+    <t>215This market works for Client  GameID = 3715273  MarketName = To Win To Nil  MarketID = 224293405  SelectorError = 0.5314685314685315</t>
+  </si>
+  <si>
+    <t>216This market works for Client  GameID = 3715276  MarketName = Last Team To Score  MarketID = 222359467  SelectorError = 0.9625690493857696</t>
+  </si>
+  <si>
+    <t>217This market works for Client  GameID = 3715277  MarketName = Last Team To Score  MarketID = 222886639  SelectorError = 0.9772195018096658</t>
+  </si>
+  <si>
+    <t>218This market works for Client  GameID = 3715278  MarketName = To Win Both Halves  MarketID = 224293379  SelectorError = 0.20192307692307693</t>
+  </si>
+  <si>
+    <t>219This market works for Client  GameID = 3715278  MarketName = To Score in Both Halves  MarketID = 224293381  SelectorError = 0.4666666666666667</t>
+  </si>
+  <si>
+    <t>220This market works for Client  GameID = 3715278  MarketName = To Win To Nil  MarketID = 224293380  SelectorError = 0.4484848484848485</t>
+  </si>
+  <si>
+    <t>221This market works for Client  GameID = 3715279  MarketName = To Win Both Halves  MarketID = 224293495  SelectorError = 0.3286004056795132</t>
+  </si>
+  <si>
+    <t>222This market works for Client  GameID = 3715279  MarketName = To Win To Nil  MarketID = 224293498  SelectorError = 0.5213675213675213</t>
+  </si>
+  <si>
+    <t>223This market works for Client  GameID = 3715279  MarketName = To Score in Both Halves  MarketID = 224293497  SelectorError = 0.5795454545454546</t>
+  </si>
+  <si>
+    <t>224This market works for Client  GameID = 3715284  MarketName = Last Team To Score  MarketID = 222398275  SelectorError = 0.9437596302003082</t>
+  </si>
+  <si>
+    <t>225This market works for Client  GameID = 3715288  MarketName = To Win Both Halves  MarketID = 224293472  SelectorError = 0.2205128205128205</t>
+  </si>
+  <si>
+    <t>226This market works for Client  GameID = 3715288  MarketName = To Win To Nil  MarketID = 224293473  SelectorError = 0.47435897435897434</t>
+  </si>
+  <si>
+    <t>227This market works for Client  GameID = 3715288  MarketName = To Score in Both Halves  MarketID = 224293474  SelectorError = 0.45238095238095233</t>
+  </si>
+  <si>
+    <t>228This market works for Client  GameID = 3715291  MarketName = To Win Both Halves  MarketID = 224293412  SelectorError = 0.19090909090909092</t>
+  </si>
+  <si>
+    <t>229This market works for Client  GameID = 3715291  MarketName = To Score in Both Halves  MarketID = 224293413  SelectorError = 0.4309468822170901</t>
+  </si>
+  <si>
+    <t>230This market works for Client  GameID = 3715291  MarketName = To Win To Nil  MarketID = 224293414  SelectorError = 0.4722222222222222</t>
+  </si>
+  <si>
+    <t>231This market works for Client  GameID = 3715299  MarketName = To Win Both Halves  MarketID = 224293373  SelectorError = 0.24347826086956523</t>
+  </si>
+  <si>
+    <t>232This market works for Client  GameID = 3715299  MarketName = To Win To Nil  MarketID = 224293374  SelectorError = 0.525</t>
+  </si>
+  <si>
+    <t>233This market works for Client  GameID = 3715299  MarketName = To Score in Both Halves  MarketID = 224293375  SelectorError = 0.4583333333333333</t>
+  </si>
+  <si>
+    <t>234This market works for Client  GameID = 3715302  MarketName = To Win Both Halves  MarketID = 224293484  SelectorError = 0.23076923076923078</t>
+  </si>
+  <si>
+    <t>235This market works for Client  GameID = 3715302  MarketName = To Score in Both Halves  MarketID = 224293485  SelectorError = 0.5299145299145299</t>
+  </si>
+  <si>
+    <t>236This market works for Client  GameID = 3715302  MarketName = To Win To Nil  MarketID = 224293486  SelectorError = 0.45238095238095233</t>
+  </si>
+  <si>
+    <t>237This market works for Client  GameID = 3715307  MarketName = To Win Both Halves  MarketID = 224293466  SelectorError = 0.22549019607843135</t>
+  </si>
+  <si>
+    <t>238This market works for Client  GameID = 3715307  MarketName = To Score in Both Halves  MarketID = 224293468  SelectorError = 0.4607843137254902</t>
+  </si>
+  <si>
+    <t>239This market works for Client  GameID = 3715307  MarketName = To Win To Nil  MarketID = 224293467  SelectorError = 0.5</t>
+  </si>
+  <si>
+    <t>240This market works for Client  GameID = 3715317  MarketName = To Win Both Halves  MarketID = 224293376  SelectorError = 0.20192307692307693</t>
+  </si>
+  <si>
+    <t>241This market works for Client  GameID = 3715317  MarketName = To Score in Both Halves  MarketID = 224293378  SelectorError = 0.41666666666666663</t>
+  </si>
+  <si>
+    <t>242This market works for Client  GameID = 3715317  MarketName = To Win To Nil  MarketID = 224293377  SelectorError = 0.4857142857142857</t>
+  </si>
+  <si>
+    <t>243This market works for Client  GameID = 3771534  MarketName = 1 Half Correct Score  MarketID = 224470487  SelectorError = 0.4981698616539487</t>
+  </si>
+  <si>
+    <t>244This market works for Client  GameID = 3771680  MarketName = 1 Half Correct Score  MarketID = 224396999  SelectorError = 0.2150537634408602</t>
+  </si>
+  <si>
+    <t>245This market works for Client  GameID = 3771681  MarketName = 1 Half Correct Score  MarketID = 224397005  SelectorError = 0.2150537634408602</t>
+  </si>
+  <si>
+    <t>246This market works for Client  GameID = 3771894  MarketName = To Win Both Halves  MarketID = 224412175  SelectorError = 0.6766666666666666</t>
+  </si>
+  <si>
+    <t>247This market works for Client  GameID = 3771894  MarketName = 1 Half Correct Score  MarketID = 224409536  SelectorError = 0.42864780019600746</t>
+  </si>
+  <si>
+    <t>248This market works for Client  GameID = 3771894  MarketName = To Score in Both Halves  MarketID = 224412180  SelectorError = 0.8666666666666667</t>
+  </si>
+  <si>
+    <t>249This market works for Client  GameID = 3771894  MarketName = To Win To Nil  MarketID = 224412185  SelectorError = 0.6360433855566886</t>
+  </si>
+  <si>
+    <t>250This market works for Client  GameID = 3771895  MarketName = 1 Half Correct Score  MarketID = 224400444  SelectorError = 0.237006028868157</t>
+  </si>
+  <si>
+    <t>251This market works for Client  GameID = 3771897  MarketName = 1 Half Correct Score  MarketID = 224409501  SelectorError = 0.2785515320334262</t>
+  </si>
+  <si>
+    <t>252This market works for Client  GameID = 3771898  MarketName = 1 Half Correct Score  MarketID = 224424616  SelectorError = 0.9569758209253051</t>
+  </si>
+  <si>
+    <t>253This market works for Client  GameID = 3772036  MarketName = To Win Both Halves  MarketID = 224412159  SelectorError = 0.23327441212705552</t>
+  </si>
+  <si>
+    <t>254This market works for Client  GameID = 3772036  MarketName = 1 Half Correct Score  MarketID = 224402469  SelectorError = 0.9950725171160623</t>
+  </si>
+  <si>
+    <t>255This market works for Client  GameID = 3772036  MarketName = 1 Half Exact Goals  MarketID = 224414492  SelectorError = 0.9936506767468058</t>
+  </si>
+  <si>
+    <t>256This market works for Client  GameID = 3772036  MarketName = 2 Half Exact Goals  MarketID = 224432232  SelectorError = 0.9930424059166495</t>
+  </si>
+  <si>
+    <t>257This market works for Client  GameID = 3772036  MarketName = To Score in Both Halves  MarketID = 224412157  SelectorError = 0.6363727757112697</t>
+  </si>
+  <si>
+    <t>258This market works for Client  GameID = 3772036  MarketName = To Win To Nil  MarketID = 224412158  SelectorError = 0.33516653414612596</t>
+  </si>
+  <si>
+    <t>259This market works for Client  GameID = 3772037  MarketName = 1 Half Correct Score  MarketID = 224402482  SelectorError = 0.9577449456803006</t>
+  </si>
+  <si>
+    <t>260This market works for Client  GameID = 3772195  MarketName = To Win Both Halves  MarketID = 224525974  SelectorError = 0.2639917353079846</t>
+  </si>
+  <si>
+    <t>261This market works for Client  GameID = 3772195  MarketName = 1 Half Correct Score  MarketID = 224402458  SelectorError = 0.7741310182317248</t>
+  </si>
+  <si>
+    <t>262This market works for Client  GameID = 3772195  MarketName = To Win To Nil  MarketID = 224525976  SelectorError = 0.35279263220439694</t>
+  </si>
+  <si>
+    <t>263This market works for Client  GameID = 3772268  MarketName = To Win Both Halves  MarketID = 224412137  SelectorError = 0.24530525543221288</t>
+  </si>
+  <si>
+    <t>264This market works for Client  GameID = 3772268  MarketName = 1 Half Correct Score  MarketID = 224409235  SelectorError = 0.967884849692503</t>
+  </si>
+  <si>
+    <t>265This market works for Client  GameID = 3772268  MarketName = 2 Half Exact Goals  MarketID = 224420483  SelectorError = 0.9958184194937579</t>
+  </si>
+  <si>
+    <t>266This market works for Client  GameID = 3772268  MarketName = To Score in Both Halves  MarketID = 224412135  SelectorError = 0.6703330682922519</t>
+  </si>
+  <si>
+    <t>267This market works for Client  GameID = 3772268  MarketName = To Win To Nil  MarketID = 224412136  SelectorError = 0.3078773517162143</t>
+  </si>
+  <si>
+    <t>268This market works for Client  GameID = 3772698  MarketName = 1 Half Correct Score  MarketID = 224432322  SelectorError = 0.22883295194508008</t>
+  </si>
+  <si>
+    <t>269This market works for Client  GameID = 3736436  MarketName = Last Team To Score  MarketID = 222863357  SelectorError = 0.9774964838255977</t>
+  </si>
+  <si>
+    <t>270This market works for Client  GameID = 3736436  MarketName = To Win Both Halves  MarketID = 224293055  SelectorError = 0.20192307692307693</t>
+  </si>
+  <si>
+    <t>271This market works for Client  GameID = 3736436  MarketName = To Win To Nil  MarketID = 224293057  SelectorError = 0.4484848484848485</t>
+  </si>
+  <si>
+    <t>272This market works for Client  GameID = 3736436  MarketName = To Score in Both Halves  MarketID = 224293056  SelectorError = 0.45</t>
+  </si>
+  <si>
+    <t>273This market works for Client  GameID = 3736437  MarketName = To Win Both Halves  MarketID = 224293070  SelectorError = 0.28846153846153844</t>
+  </si>
+  <si>
+    <t>274This market works for Client  GameID = 3736437  MarketName = To Score in Both Halves  MarketID = 224293071  SelectorError = 0.4927905004240882</t>
+  </si>
+  <si>
+    <t>275This market works for Client  GameID = 3736437  MarketName = To Win To Nil  MarketID = 224293072  SelectorError = 0.5219409282700421</t>
+  </si>
+  <si>
+    <t>276This market works for Client  GameID = 3736438  MarketName = To Win Both Halves  MarketID = 224293097  SelectorError = 0.25263157894736843</t>
+  </si>
+  <si>
+    <t>277This market works for Client  GameID = 3736438  MarketName = To Score in Both Halves  MarketID = 224293098  SelectorError = 0.5303030303030303</t>
+  </si>
+  <si>
+    <t>278This market works for Client  GameID = 3736438  MarketName = To Win To Nil  MarketID = 224293100  SelectorError = 0.48863636363636365</t>
+  </si>
+  <si>
+    <t>279This market works for Client  GameID = 3736439  MarketName = To Win Both Halves  MarketID = 224293025  SelectorError = 0.5913953488372093</t>
+  </si>
+  <si>
+    <t>280This market works for Client  GameID = 3736439  MarketName = To Win To Nil  MarketID = 224293027  SelectorError = 0.626799882456656</t>
+  </si>
+  <si>
+    <t>281This market works for Client  GameID = 3736439  MarketName = To Score in Both Halves  MarketID = 224293026  SelectorError = 0.7611111111111111</t>
+  </si>
+  <si>
+    <t>282This market works for Client  GameID = 3736441  MarketName = To Win Both Halves  MarketID = 224293130  SelectorError = 0.22529644268774704</t>
+  </si>
+  <si>
+    <t>283This market works for Client  GameID = 3736441  MarketName = To Win To Nil  MarketID = 224293131  SelectorError = 0.5538461538461539</t>
+  </si>
+  <si>
+    <t>284This market works for Client  GameID = 3736441  MarketName = To Score in Both Halves  MarketID = 224293132  SelectorError = 0.3968253968253968</t>
+  </si>
+  <si>
+    <t>285This market works for Client  GameID = 3736443  MarketName = To Win Both Halves  MarketID = 224293037  SelectorError = 0.2111111111111111</t>
+  </si>
+  <si>
+    <t>286This market works for Client  GameID = 3736443  MarketName = To Score in Both Halves  MarketID = 224293038  SelectorError = 0.5333333333333333</t>
+  </si>
+  <si>
+    <t>287This market works for Client  GameID = 3736443  MarketName = To Win To Nil  MarketID = 224293039  SelectorError = 0.4222222222222222</t>
+  </si>
+  <si>
+    <t>288This market works for Client  GameID = 3736444  MarketName = Last Team To Score  MarketID = 222893398  SelectorError = 0.9993002711449314</t>
+  </si>
+  <si>
+    <t>289This market works for Client  GameID = 3736444  MarketName = To Win Both Halves  MarketID = 224293106  SelectorError = 0.24761904761904763</t>
+  </si>
+  <si>
+    <t>290This market works for Client  GameID = 3736444  MarketName = To Score in Both Halves  MarketID = 224293107  SelectorError = 0.5174825174825175</t>
+  </si>
+  <si>
+    <t>291This market works for Client  GameID = 3736444  MarketName = To Win To Nil  MarketID = 224293108  SelectorError = 0.48863636363636365</t>
+  </si>
+  <si>
+    <t>292This market works for Client  GameID = 3738510  MarketName = To Win Both Halves  MarketID = 224293082  SelectorError = 0.21266968325791857</t>
+  </si>
+  <si>
+    <t>293This market works for Client  GameID = 3738510  MarketName = To Score in Both Halves  MarketID = 224293083  SelectorError = 0.4205128205128205</t>
+  </si>
+  <si>
+    <t>294This market works for Client  GameID = 3738510  MarketName = To Win To Nil  MarketID = 224293084  SelectorError = 0.5</t>
+  </si>
+  <si>
+    <t>295This market works for Client  GameID = 3738513  MarketName = To Win Both Halves  MarketID = 224293133  SelectorError = 0.21266968325791857</t>
+  </si>
+  <si>
+    <t>296This market works for Client  GameID = 3738513  MarketName = To Win To Nil  MarketID = 224293135  SelectorError = 0.47435897435897434</t>
+  </si>
+  <si>
+    <t>297This market works for Client  GameID = 3738513  MarketName = To Score in Both Halves  MarketID = 224293134  SelectorError = 0.45238095238095233</t>
+  </si>
+  <si>
+    <t>298This market works for Client  GameID = 3739979  MarketName = To Win Both Halves  MarketID = 224293061  SelectorError = 0.24761904761904763</t>
+  </si>
+  <si>
+    <t>299This market works for Client  GameID = 3739979  MarketName = To Win To Nil  MarketID = 224293063  SelectorError = 0.5066793893129771</t>
+  </si>
+  <si>
+    <t>300This market works for Client  GameID = 3739979  MarketName = To Score in Both Halves  MarketID = 224293062  SelectorError = 0.5064935064935066</t>
+  </si>
+  <si>
+    <t>301This market works for Client  GameID = 3765262  MarketName = To Win Both Halves  MarketID = 224294349  SelectorError = 0.3916256157635468</t>
+  </si>
+  <si>
+    <t>302This market works for Client  GameID = 3765262  MarketName = To Win To Nil  MarketID = 224294350  SelectorError = 0.5420393559928444</t>
+  </si>
+  <si>
+    <t>303This market works for Client  GameID = 3765262  MarketName = To Score in Both Halves  MarketID = 224514807  SelectorError = 0.6111111111111112</t>
+  </si>
+  <si>
+    <t>304This market works for Client  GameID = 3765263  MarketName = To Win Both Halves  MarketID = 224294303  SelectorError = 0.24444444444444444</t>
+  </si>
+  <si>
+    <t>305This market works for Client  GameID = 3765263  MarketName = To Win To Nil  MarketID = 224294302  SelectorError = 0.4605263157894737</t>
+  </si>
+  <si>
+    <t>306This market works for Client  GameID = 3765263  MarketName = To Score in Both Halves  MarketID = 224514684  SelectorError = 0.49761354888375675</t>
+  </si>
+  <si>
+    <t>307This market works for Client  GameID = 3765350  MarketName = To Win Both Halves  MarketID = 224294393  SelectorError = 0.22619047619047616</t>
+  </si>
+  <si>
+    <t>308This market works for Client  GameID = 3765350  MarketName = To Win To Nil  MarketID = 224294394  SelectorError = 0.5046439628482973</t>
+  </si>
+  <si>
+    <t>309This market works for Client  GameID = 3765350  MarketName = To Score in Both Halves  MarketID = 224514780  SelectorError = 0.4318181818181818</t>
+  </si>
+  <si>
+    <t>310This market works for Client  GameID = 3765354  MarketName = To Win Both Halves  MarketID = 224294289  SelectorError = 0.26666666666666666</t>
+  </si>
+  <si>
+    <t>311This market works for Client  GameID = 3765354  MarketName = To Win To Nil  MarketID = 224294290  SelectorError = 0.49867374005305043</t>
+  </si>
+  <si>
+    <t>312This market works for Client  GameID = 3765354  MarketName = To Score in Both Halves  MarketID = 224514848  SelectorError = 0.48717948717948717</t>
+  </si>
+  <si>
+    <t>313This market works for Client  GameID = 3765356  MarketName = To Win Both Halves  MarketID = 224294320  SelectorError = 0.38568376068376065</t>
+  </si>
+  <si>
+    <t>314This market works for Client  GameID = 3765356  MarketName = To Win To Nil  MarketID = 224294321  SelectorError = 0.5111111111111111</t>
+  </si>
+  <si>
+    <t>315This market works for Client  GameID = 3765356  MarketName = To Score in Both Halves  MarketID = 224514878  SelectorError = 0.6513157894736842</t>
+  </si>
+  <si>
+    <t>316This market works for Client  GameID = 3765358  MarketName = Last Team To Score  MarketID = 224415582  SelectorError = 0.9892787524366471</t>
+  </si>
+  <si>
+    <t>317This market works for Client  GameID = 3765358  MarketName = To Win Both Halves  MarketID = 224294291  SelectorError = 0.25384615384615383</t>
+  </si>
+  <si>
+    <t>318This market works for Client  GameID = 3765358  MarketName = To Win To Nil  MarketID = 224294292  SelectorError = 0.45833333333333337</t>
+  </si>
+  <si>
+    <t>319This market works for Client  GameID = 3765358  MarketName = To Score in Both Halves  MarketID = 224514565  SelectorError = 0.5166611679313757</t>
+  </si>
+  <si>
+    <t>320This market works for Client  GameID = 3765360  MarketName = To Win Both Halves  MarketID = 224294324  SelectorError = 0.2907268170426065</t>
+  </si>
+  <si>
+    <t>321This market works for Client  GameID = 3765360  MarketName = To Win To Nil  MarketID = 224294325  SelectorError = 0.5111111111111111</t>
+  </si>
+  <si>
+    <t>322This market works for Client  GameID = 3765360  MarketName = To Score in Both Halves  MarketID = 224514673  SelectorError = 0.5355255431591309</t>
+  </si>
+  <si>
+    <t>323This market works for Client  GameID = 3767914  MarketName = To Win Both Halves  MarketID = 224514740  SelectorError = 0.30114942528735633</t>
+  </si>
+  <si>
+    <t>324This market works for Client  GameID = 3767914  MarketName = To Score in Both Halves  MarketID = 224514668  SelectorError = 0.5111111111111111</t>
+  </si>
+  <si>
+    <t>325This market works for Client  GameID = 3767914  MarketName = To Win To Nil  MarketID = 224514692  SelectorError = 0.5353535353535354</t>
+  </si>
+  <si>
+    <t>326This market works for Client  GameID = 3767915  MarketName = To Win Both Halves  MarketID = 224514656  SelectorError = 0.20192307692307693</t>
+  </si>
+  <si>
+    <t>327This market works for Client  GameID = 3767915  MarketName = To Score in Both Halves  MarketID = 224514628  SelectorError = 0.4318181818181818</t>
+  </si>
+  <si>
+    <t>328This market works for Client  GameID = 3767915  MarketName = To Win To Nil  MarketID = 224514634  SelectorError = 0.4675324675324675</t>
+  </si>
+  <si>
+    <t>329This market works for Client  GameID = 3767917  MarketName = To Win Both Halves  MarketID = 224514940  SelectorError = 0.2095238095238095</t>
+  </si>
+  <si>
+    <t>330This market works for Client  GameID = 3767917  MarketName = To Score in Both Halves  MarketID = 224514915  SelectorError = 0.4675324675324675</t>
+  </si>
+  <si>
+    <t>331This market works for Client  GameID = 3767917  MarketName = To Win To Nil  MarketID = 224514921  SelectorError = 0.4607843137254902</t>
+  </si>
+  <si>
+    <t>332This market works for Client  GameID = 3758522  MarketName = To Win Both Halves  MarketID = 224293502  SelectorError = 0.2785659298361377</t>
+  </si>
+  <si>
+    <t>333This market works for Client  GameID = 3758522  MarketName = To Score in Both Halves  MarketID = 224293500  SelectorError = 0.5245365321701199</t>
+  </si>
+  <si>
+    <t>334This market works for Client  GameID = 3758522  MarketName = To Win To Nil  MarketID = 224293501  SelectorError = 0.4927905004240882</t>
+  </si>
+  <si>
+    <t>335This market works for Client  GameID = 3761277  MarketName = Last Team To Score  MarketID = 224335387  SelectorError = 0.9841648973814578</t>
+  </si>
+  <si>
+    <t>336This market works for Client  GameID = 3761277  MarketName = To Win Both Halves  MarketID = 224293584  SelectorError = 0.21929824561403508</t>
+  </si>
+  <si>
+    <t>337This market works for Client  GameID = 3761277  MarketName = To Win To Nil  MarketID = 224293586  SelectorError = 0.47619047619047616</t>
+  </si>
+  <si>
+    <t>338This market works for Client  GameID = 3761277  MarketName = To Score in Both Halves  MarketID = 224293585  SelectorError = 0.46153846153846156</t>
+  </si>
+  <si>
+    <t>339This market works for Client  GameID = 3761772  MarketName = To Win Both Halves  MarketID = 224293088  SelectorError = 0.22943722943722944</t>
+  </si>
+  <si>
+    <t>340This market works for Client  GameID = 3761772  MarketName = To Score in Both Halves  MarketID = 224293089  SelectorError = 0.41911764705882354</t>
+  </si>
+  <si>
+    <t>341This market works for Client  GameID = 3761772  MarketName = To Win To Nil  MarketID = 224293090  SelectorError = 0.5245365321701199</t>
+  </si>
+  <si>
+    <t>342This market works for Client  GameID = 3761773  MarketName = To Win Both Halves  MarketID = 224293121  SelectorError = 0.20202020202020202</t>
+  </si>
+  <si>
+    <t>343This market works for Client  GameID = 3761773  MarketName = To Win To Nil  MarketID = 224293122  SelectorError = 0.4666666666666667</t>
+  </si>
+  <si>
+    <t>344This market works for Client  GameID = 3761773  MarketName = To Score in Both Halves  MarketID = 224293123  SelectorError = 0.45</t>
+  </si>
+  <si>
+    <t>345This market works for Client  GameID = 3761774  MarketName = To Win Both Halves  MarketID = 224293623  SelectorError = 0.28846153846153844</t>
+  </si>
+  <si>
+    <t>346This market works for Client  GameID = 3761774  MarketName = To Win To Nil  MarketID = 224293624  SelectorError = 0.5219409282700421</t>
+  </si>
+  <si>
+    <t>347This market works for Client  GameID = 3761774  MarketName = To Score in Both Halves  MarketID = 224293625  SelectorError = 0.525</t>
+  </si>
+  <si>
+    <t>348This market works for Client  GameID = 3763198  MarketName = To Win Both Halves  MarketID = 224293175  SelectorError = 0.20192307692307693</t>
+  </si>
+  <si>
+    <t>349This market works for Client  GameID = 3763198  MarketName = To Score in Both Halves  MarketID = 224293176  SelectorError = 0.3976135488837567</t>
+  </si>
+  <si>
+    <t>350This market works for Client  GameID = 3763198  MarketName = To Win To Nil  MarketID = 224293177  SelectorError = 0.47593582887700536</t>
+  </si>
+  <si>
+    <t>351This market works for Client  GameID = 3765101  MarketName = Last Team To Score  MarketID = 224460504  SelectorError = 0.9589638209103929</t>
+  </si>
+  <si>
+    <t>352This market works for Client  GameID = 3765101  MarketName = To Win Both Halves  MarketID = 224293231  SelectorError = 0.21929824561403508</t>
+  </si>
+  <si>
+    <t>353This market works for Client  GameID = 3765101  MarketName = To Win To Nil  MarketID = 224293234  SelectorError = 0.5174825174825175</t>
+  </si>
+  <si>
+    <t>354This market works for Client  GameID = 3765101  MarketName = To Score in Both Halves  MarketID = 224293232  SelectorError = 0.39166666666666666</t>
+  </si>
+  <si>
+    <t>355This market works for Client  GameID = 3766660  MarketName = To Win Both Halves  MarketID = 224293109  SelectorError = 0.18803418803418803</t>
+  </si>
+  <si>
+    <t>356This market works for Client  GameID = 3766660  MarketName = To Win To Nil  MarketID = 224293110  SelectorError = 0.5079365079365079</t>
+  </si>
+  <si>
+    <t>357This market works for Client  GameID = 3766660  MarketName = To Score in Both Halves  MarketID = 224293111  SelectorError = 0.4127650640352719</t>
   </si>
 </sst>
 </file>
@@ -326,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A90"/>
+  <dimension ref="A1:A357"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -785,6 +1586,1341 @@
         <v>89</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
